--- a/constructs/ConstructsOntologyMappingTemplate-JH.xlsx
+++ b/constructs/ConstructsOntologyMappingTemplate-JH.xlsx
@@ -5,30 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Projects/100 Behaviour Change/Theory Specification/Theory Integration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Python/TheoryDatabase/constructs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0672FA5A-52CD-EB4D-9078-09656A802EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11BF5714-CE54-A549-8962-2B3CFA8EF3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="-20260" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="480" windowWidth="23720" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="2821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5177" uniqueCount="2905">
   <si>
     <t>Theory No.</t>
   </si>
@@ -8551,6 +8543,258 @@
   </si>
   <si>
     <t>Self re-evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could be multiple different things, as specified in the theory - this is a grouping class  </t>
+  </si>
+  <si>
+    <t>This is the opposite of a goal setting process</t>
+  </si>
+  <si>
+    <t>This is a goal adjustment process</t>
+  </si>
+  <si>
+    <t>Another grouping class?</t>
+  </si>
+  <si>
+    <t>need for a sense of belonging and attachment</t>
+  </si>
+  <si>
+    <t>BCIO:006068</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t>MF:0000058</t>
+  </si>
+  <si>
+    <t>educational facility</t>
+  </si>
+  <si>
+    <t>BCIO:026022</t>
+  </si>
+  <si>
+    <t>SDGIO:00010001</t>
+  </si>
+  <si>
+    <t>education process</t>
+  </si>
+  <si>
+    <t>self-regulatory skill</t>
+  </si>
+  <si>
+    <t>BCIO:050222</t>
+  </si>
+  <si>
+    <t>behavioural self-regulation capability</t>
+  </si>
+  <si>
+    <t>BCIO:006006</t>
+  </si>
+  <si>
+    <t>impulsive behaviour</t>
+  </si>
+  <si>
+    <t>BCIO:036076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harmful behaviour </t>
+  </si>
+  <si>
+    <t>BCIO:036075</t>
+  </si>
+  <si>
+    <t>social centre or Community Hall facility</t>
+  </si>
+  <si>
+    <t>BCIO:026031</t>
+  </si>
+  <si>
+    <t>coercive behaviour change intervention</t>
+  </si>
+  <si>
+    <t>BCIO:037015</t>
+  </si>
+  <si>
+    <t>antisocial behaviour</t>
+  </si>
+  <si>
+    <t>BCIO:036072</t>
+  </si>
+  <si>
+    <t>BCIO:006304</t>
+  </si>
+  <si>
+    <t>behavioural importance-based motivation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goal-oriented behaviour </t>
+  </si>
+  <si>
+    <t>approval-based motivation</t>
+  </si>
+  <si>
+    <t>BCIO:006300</t>
+  </si>
+  <si>
+    <t>self-reinforcing self-regulation</t>
+  </si>
+  <si>
+    <t>BCIO:006106</t>
+  </si>
+  <si>
+    <t>satisfaction</t>
+  </si>
+  <si>
+    <t>MFOEM:000169</t>
+  </si>
+  <si>
+    <t>appraisal of goal importance</t>
+  </si>
+  <si>
+    <t>MFOEM:000072</t>
+  </si>
+  <si>
+    <t>supervision of person source</t>
+  </si>
+  <si>
+    <t>BCIO:010128</t>
+  </si>
+  <si>
+    <t>skill development function</t>
+  </si>
+  <si>
+    <t>BCIO:036038</t>
+  </si>
+  <si>
+    <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+  </si>
+  <si>
+    <t>experiential rightness of goal pursuit</t>
+  </si>
+  <si>
+    <t>planning</t>
+  </si>
+  <si>
+    <t>MF:0000027</t>
+  </si>
+  <si>
+    <t>belief about social consequences of behaviour</t>
+  </si>
+  <si>
+    <t>BCIO:006020</t>
+  </si>
+  <si>
+    <t>self-monitoring</t>
+  </si>
+  <si>
+    <t>BCIO:006137</t>
+  </si>
+  <si>
+    <t>emotional action tendency</t>
+  </si>
+  <si>
+    <t>MFOEM:000007</t>
+  </si>
+  <si>
+    <t>personal capability</t>
+  </si>
+  <si>
+    <t>appraisal of dangerousness</t>
+  </si>
+  <si>
+    <t>MFOEM:000103</t>
+  </si>
+  <si>
+    <t>belief about social support</t>
+  </si>
+  <si>
+    <t>BCIO:006146</t>
+  </si>
+  <si>
+    <t>situational self-efficacy belief for a behaviour</t>
+  </si>
+  <si>
+    <t>BCIO:006044</t>
+  </si>
+  <si>
+    <t>belief about health consequences of behaviour</t>
+  </si>
+  <si>
+    <t>BCIO:050219</t>
+  </si>
+  <si>
+    <t>belief about likelihood of emotional consequences of behaviour</t>
+  </si>
+  <si>
+    <t>BCIO:050220</t>
+  </si>
+  <si>
+    <t>social influence behaviour</t>
+  </si>
+  <si>
+    <t>need for a sense of safety</t>
+  </si>
+  <si>
+    <t>BCIO:006067</t>
+  </si>
+  <si>
+    <t>outcome behaviour</t>
+  </si>
+  <si>
+    <t>BCIO:000009</t>
+  </si>
+  <si>
+    <t>autonomous motivation</t>
+  </si>
+  <si>
+    <t>BCIO:006302</t>
+  </si>
+  <si>
+    <t>positive behavioural contingency</t>
+  </si>
+  <si>
+    <t>BCIO:037027</t>
+  </si>
+  <si>
+    <t>plan enactment</t>
+  </si>
+  <si>
+    <t>evaluative belief about behavioural outcome</t>
+  </si>
+  <si>
+    <t>BCIO:006148</t>
+  </si>
+  <si>
+    <t>self-regulatory capability</t>
+  </si>
+  <si>
+    <t>fundamental need-based motivation</t>
+  </si>
+  <si>
+    <t>BCIO:006308</t>
+  </si>
+  <si>
+    <t>psychological need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belief about social support </t>
+  </si>
+  <si>
+    <t>preference</t>
+  </si>
+  <si>
+    <t>MF:0000042</t>
+  </si>
+  <si>
+    <t>mental plan for coping with barriers</t>
+  </si>
+  <si>
+    <t>BCIO:006157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">situational self-efficacy belief for a behaviour </t>
   </si>
 </sst>
 </file>
@@ -8781,6 +9025,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -9292,7 +9537,7 @@
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9545,6 +9790,27 @@
     <xf numFmtId="0" fontId="4" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9701,7 +9967,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -9726,7 +9991,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -10001,16 +10265,16 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Theory Name" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Construct Label" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Construct Definition" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{9A25FDEA-00C9-6C47-9BD8-5F4628D49B3D}" name="Ontology ID" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{E1BE1EF6-05E8-BE45-89ED-CC6632B958B1}" name="Ontology Label" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{73A9DA4B-6735-AC44-BFF6-5BAADC516832}" name="Alt Ontology ID" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{1C6175BF-29EB-C545-8520-817FFF595177}" name="Alt Ontology Label" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{9C0F333A-550F-CC4A-AF72-427D3BF112EB}" name="Alt Ontology ID 2" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{DBE4DC10-4BB8-6A42-B809-1E17B3B3B831}" name="Alt Ontology Label 2" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{4D4BC429-7129-E840-A01D-031E7AF97162}" name="Ontology mapping notes" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{051CE83B-E55A-F24B-90BA-ED4319E73384}" name="Column1" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{0A2F8ED8-57CF-E849-828C-58FAA417A04A}" name="Column2" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{44696D4A-118A-E24C-AE30-525A3409E2C0}" name="MAPPING_DETAIL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ontology ID" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ontology Label" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Alt Ontology ID" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt Ontology Label" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Alt Ontology ID 2" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Alt Ontology Label 2" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ontology mapping notes" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="MAPPING_DETAIL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10340,8 +10604,8 @@
   <dimension ref="A1:N2848"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1451" sqref="C1451"/>
+      <pane ySplit="1" topLeftCell="A1452" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E467" sqref="E467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10351,12 +10615,12 @@
     <col min="3" max="3" width="26.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="40.5" style="10" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="6" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="16" style="6" customWidth="1"/>
+    <col min="11" max="11" width="30.1640625" style="6" customWidth="1"/>
     <col min="12" max="13" width="9.1640625" style="6"/>
     <col min="14" max="14" width="27.1640625" style="6" customWidth="1"/>
     <col min="15" max="16384" width="9.1640625" style="6"/>
@@ -12287,7 +12551,7 @@
       <c r="H62" s="71"/>
       <c r="I62" s="71"/>
       <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
+      <c r="K62" s="81"/>
       <c r="L62" s="83"/>
       <c r="M62" s="83"/>
       <c r="N62" s="83" t="s">
@@ -12317,7 +12581,7 @@
       <c r="H63" s="71"/>
       <c r="I63" s="71"/>
       <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
+      <c r="K63" s="81"/>
       <c r="L63" s="83"/>
       <c r="M63" s="83"/>
       <c r="N63" s="83" t="s">
@@ -12351,7 +12615,7 @@
       </c>
       <c r="I64" s="71"/>
       <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
+      <c r="K64" s="81"/>
       <c r="L64" s="83"/>
       <c r="M64" s="83"/>
       <c r="N64" s="83" t="s">
@@ -12385,7 +12649,7 @@
       </c>
       <c r="I65" s="71"/>
       <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
+      <c r="K65" s="81"/>
       <c r="L65" s="83"/>
       <c r="M65" s="83"/>
       <c r="N65" s="83" t="s">
@@ -12411,7 +12675,7 @@
       <c r="H66" s="71"/>
       <c r="I66" s="71"/>
       <c r="J66" s="71"/>
-      <c r="K66" s="71" t="s">
+      <c r="K66" s="81" t="s">
         <v>2675</v>
       </c>
       <c r="L66" s="83"/>
@@ -12447,7 +12711,7 @@
       </c>
       <c r="I67"/>
       <c r="J67"/>
-      <c r="K67" s="71"/>
+      <c r="K67" s="81"/>
       <c r="L67" s="83"/>
       <c r="M67" s="83"/>
       <c r="N67" s="83" t="s">
@@ -12477,7 +12741,7 @@
       <c r="H68" s="71"/>
       <c r="I68" s="71"/>
       <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
+      <c r="K68" s="81"/>
       <c r="L68" s="83"/>
       <c r="M68" s="83"/>
       <c r="N68" s="83" t="s">
@@ -12507,7 +12771,7 @@
       <c r="H69" s="71"/>
       <c r="I69" s="71"/>
       <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
+      <c r="K69" s="81"/>
       <c r="L69" s="83"/>
       <c r="M69" s="83"/>
       <c r="N69" s="83" t="s">
@@ -12533,7 +12797,7 @@
       <c r="H70" s="71"/>
       <c r="I70" s="71"/>
       <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
+      <c r="K70" s="81"/>
       <c r="L70" s="83"/>
       <c r="M70" s="83"/>
       <c r="N70" s="83" t="s">
@@ -12563,7 +12827,7 @@
       <c r="H71" s="71"/>
       <c r="I71" s="71"/>
       <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
+      <c r="K71" s="81"/>
       <c r="L71" s="83"/>
       <c r="M71" s="83"/>
       <c r="N71" s="83" t="s">
@@ -12593,7 +12857,7 @@
       <c r="H72" s="71"/>
       <c r="I72" s="71"/>
       <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
+      <c r="K72" s="81"/>
       <c r="L72" s="83"/>
       <c r="M72" s="83"/>
       <c r="N72" s="83" t="s">
@@ -12623,7 +12887,7 @@
       <c r="H73" s="71"/>
       <c r="I73" s="71"/>
       <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
+      <c r="K73" s="81"/>
       <c r="L73" s="83"/>
       <c r="M73" s="83"/>
       <c r="N73" s="83" t="s">
@@ -12653,7 +12917,7 @@
       <c r="H74" s="71"/>
       <c r="I74" s="71"/>
       <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
+      <c r="K74" s="81"/>
       <c r="L74" s="83"/>
       <c r="M74" s="83"/>
       <c r="N74" s="83" t="s">
@@ -12683,7 +12947,7 @@
       <c r="H75" s="71"/>
       <c r="I75" s="71"/>
       <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
+      <c r="K75" s="81"/>
       <c r="L75" s="83"/>
       <c r="M75" s="83"/>
       <c r="N75" s="83" t="s">
@@ -12713,7 +12977,7 @@
       <c r="H76" s="71"/>
       <c r="I76" s="71"/>
       <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
+      <c r="K76" s="81"/>
       <c r="L76" s="83"/>
       <c r="M76" s="83"/>
       <c r="N76" s="83" t="s">
@@ -12743,7 +13007,7 @@
       <c r="H77" s="71"/>
       <c r="I77" s="71"/>
       <c r="J77" s="71"/>
-      <c r="K77" s="71" t="s">
+      <c r="K77" s="81" t="s">
         <v>2677</v>
       </c>
       <c r="L77" s="83"/>
@@ -12775,7 +13039,7 @@
       <c r="H78" s="71"/>
       <c r="I78" s="71"/>
       <c r="J78" s="71"/>
-      <c r="K78" s="71"/>
+      <c r="K78" s="81"/>
       <c r="L78" s="83"/>
       <c r="M78" s="83"/>
       <c r="N78" s="83" t="s">
@@ -12805,7 +13069,7 @@
       <c r="H79" s="71"/>
       <c r="I79" s="71"/>
       <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
+      <c r="K79" s="81"/>
       <c r="L79" s="83"/>
       <c r="M79" s="83"/>
       <c r="N79" s="83" t="s">
@@ -12835,7 +13099,7 @@
       <c r="H80" s="71"/>
       <c r="I80" s="71"/>
       <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
+      <c r="K80" s="81"/>
       <c r="L80" s="83"/>
       <c r="M80" s="83"/>
       <c r="N80" s="83" t="s">
@@ -12865,7 +13129,7 @@
       <c r="H81" s="71"/>
       <c r="I81" s="71"/>
       <c r="J81" s="71"/>
-      <c r="K81" s="71"/>
+      <c r="K81" s="81"/>
       <c r="L81" s="83"/>
       <c r="M81" s="83"/>
       <c r="N81" s="83" t="s">
@@ -12929,7 +13193,7 @@
       </c>
       <c r="I83" s="71"/>
       <c r="J83" s="71"/>
-      <c r="K83" s="71" t="s">
+      <c r="K83" s="81" t="s">
         <v>2554</v>
       </c>
       <c r="L83" s="83"/>
@@ -12961,7 +13225,7 @@
       <c r="H84" s="71"/>
       <c r="I84" s="71"/>
       <c r="J84" s="71"/>
-      <c r="K84" s="71"/>
+      <c r="K84" s="81"/>
       <c r="L84" s="83"/>
       <c r="M84" s="83"/>
       <c r="N84" s="83" t="s">
@@ -12993,7 +13257,7 @@
       </c>
       <c r="I85" s="71"/>
       <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
+      <c r="K85" s="81"/>
       <c r="L85" s="83"/>
       <c r="M85" s="83"/>
       <c r="N85" s="83" t="s">
@@ -13021,7 +13285,7 @@
       <c r="H86" s="71"/>
       <c r="I86" s="71"/>
       <c r="J86" s="71"/>
-      <c r="K86" s="71" t="s">
+      <c r="K86" s="81" t="s">
         <v>2559</v>
       </c>
       <c r="L86" s="83"/>
@@ -13055,7 +13319,7 @@
       </c>
       <c r="I87" s="71"/>
       <c r="J87" s="71"/>
-      <c r="K87" s="71" t="s">
+      <c r="K87" s="81" t="s">
         <v>2558</v>
       </c>
       <c r="L87" s="83"/>
@@ -13089,7 +13353,7 @@
       </c>
       <c r="I88" s="71"/>
       <c r="J88" s="71"/>
-      <c r="K88" s="71" t="s">
+      <c r="K88" s="81" t="s">
         <v>2557</v>
       </c>
       <c r="L88" s="83"/>
@@ -13121,7 +13385,7 @@
       <c r="H89" s="71"/>
       <c r="I89" s="71"/>
       <c r="J89" s="71"/>
-      <c r="K89" s="71"/>
+      <c r="K89" s="81"/>
       <c r="L89" s="83"/>
       <c r="M89" s="83"/>
       <c r="N89" s="83" t="s">
@@ -13151,7 +13415,7 @@
       <c r="H90" s="71"/>
       <c r="I90" s="71"/>
       <c r="J90" s="71"/>
-      <c r="K90" s="71"/>
+      <c r="K90" s="81"/>
       <c r="L90" s="83"/>
       <c r="M90" s="83"/>
       <c r="N90" s="83" t="s">
@@ -13181,7 +13445,7 @@
       <c r="H91" s="71"/>
       <c r="I91" s="71"/>
       <c r="J91" s="71"/>
-      <c r="K91" s="71"/>
+      <c r="K91" s="81"/>
       <c r="L91" s="83"/>
       <c r="M91" s="83"/>
       <c r="N91" s="83" t="s">
@@ -13211,7 +13475,7 @@
       <c r="H92" s="71"/>
       <c r="I92" s="71"/>
       <c r="J92" s="71"/>
-      <c r="K92" s="71"/>
+      <c r="K92" s="81"/>
       <c r="L92" s="83"/>
       <c r="M92" s="83"/>
       <c r="N92" s="83" t="s">
@@ -13237,7 +13501,7 @@
       <c r="H93" s="71"/>
       <c r="I93" s="71"/>
       <c r="J93" s="71"/>
-      <c r="K93" s="71"/>
+      <c r="K93" s="81"/>
       <c r="L93" s="83"/>
       <c r="M93" s="83"/>
       <c r="N93" s="83" t="s">
@@ -13267,7 +13531,7 @@
       <c r="H94" s="71"/>
       <c r="I94" s="71"/>
       <c r="J94" s="71"/>
-      <c r="K94" s="71"/>
+      <c r="K94" s="81"/>
       <c r="L94" s="83"/>
       <c r="M94" s="83"/>
       <c r="N94" s="83" t="s">
@@ -13297,7 +13561,7 @@
       <c r="H95" s="71"/>
       <c r="I95" s="71"/>
       <c r="J95" s="71"/>
-      <c r="K95" s="71"/>
+      <c r="K95" s="81"/>
       <c r="L95" s="83"/>
       <c r="M95" s="83"/>
       <c r="N95" s="83" t="s">
@@ -13327,7 +13591,7 @@
       <c r="H96" s="71"/>
       <c r="I96" s="71"/>
       <c r="J96" s="71"/>
-      <c r="K96" s="71"/>
+      <c r="K96" s="81"/>
       <c r="L96" s="83"/>
       <c r="M96" s="83"/>
       <c r="N96" s="83" t="s">
@@ -13353,7 +13617,7 @@
       <c r="H97" s="71"/>
       <c r="I97" s="71"/>
       <c r="J97" s="71"/>
-      <c r="K97" s="71"/>
+      <c r="K97" s="81"/>
       <c r="L97" s="83"/>
       <c r="M97" s="83"/>
       <c r="N97" s="83" t="s">
@@ -13387,7 +13651,7 @@
       </c>
       <c r="I98" s="71"/>
       <c r="J98" s="71"/>
-      <c r="K98" s="71"/>
+      <c r="K98" s="81"/>
       <c r="L98" s="83"/>
       <c r="M98" s="83"/>
       <c r="N98" s="83" t="s">
@@ -13417,7 +13681,7 @@
       <c r="H99" s="71"/>
       <c r="I99" s="71"/>
       <c r="J99" s="71"/>
-      <c r="K99" s="71"/>
+      <c r="K99" s="81"/>
       <c r="L99" s="83"/>
       <c r="M99" s="83"/>
       <c r="N99" s="83" t="s">
@@ -13447,7 +13711,7 @@
       <c r="H100" s="71"/>
       <c r="I100" s="71"/>
       <c r="J100" s="71"/>
-      <c r="K100" s="71"/>
+      <c r="K100" s="81"/>
       <c r="L100" s="83"/>
       <c r="M100" s="83"/>
       <c r="N100" s="83" t="s">
@@ -13477,7 +13741,7 @@
       <c r="H101" s="71"/>
       <c r="I101" s="71"/>
       <c r="J101" s="71"/>
-      <c r="K101" s="71"/>
+      <c r="K101" s="81"/>
       <c r="L101" s="83"/>
       <c r="M101" s="83"/>
       <c r="N101" s="83" t="s">
@@ -13507,7 +13771,7 @@
       <c r="H102" s="71"/>
       <c r="I102" s="71"/>
       <c r="J102" s="71"/>
-      <c r="K102" s="71"/>
+      <c r="K102" s="81"/>
       <c r="L102" s="83"/>
       <c r="M102" s="83"/>
       <c r="N102" s="83" t="s">
@@ -13537,7 +13801,7 @@
       <c r="H103" s="71"/>
       <c r="I103" s="71"/>
       <c r="J103" s="71"/>
-      <c r="K103" s="71"/>
+      <c r="K103" s="81"/>
       <c r="L103" s="83"/>
       <c r="M103" s="83"/>
       <c r="N103" s="83" t="s">
@@ -15060,7 +15324,7 @@
       <c r="H157" s="71"/>
       <c r="I157" s="71"/>
       <c r="J157" s="71"/>
-      <c r="K157" s="71"/>
+      <c r="K157" s="81"/>
       <c r="L157" s="83"/>
       <c r="M157" s="83"/>
       <c r="N157" s="83" t="s">
@@ -15090,7 +15354,7 @@
       <c r="H158" s="71"/>
       <c r="I158" s="71"/>
       <c r="J158" s="71"/>
-      <c r="K158" s="71"/>
+      <c r="K158" s="81"/>
       <c r="L158" s="83"/>
       <c r="M158" s="83"/>
       <c r="N158" s="83" t="s">
@@ -15120,7 +15384,7 @@
       <c r="H159" s="71"/>
       <c r="I159" s="71"/>
       <c r="J159" s="71"/>
-      <c r="K159" s="71"/>
+      <c r="K159" s="81"/>
       <c r="L159" s="83"/>
       <c r="M159" s="83"/>
       <c r="N159" s="83" t="s">
@@ -15146,7 +15410,7 @@
       <c r="H160" s="71"/>
       <c r="I160" s="71"/>
       <c r="J160" s="71"/>
-      <c r="K160" s="71"/>
+      <c r="K160" s="81"/>
       <c r="L160" s="83"/>
       <c r="M160" s="83"/>
       <c r="N160" s="83" t="s">
@@ -15176,7 +15440,7 @@
       <c r="H161" s="71"/>
       <c r="I161" s="71"/>
       <c r="J161" s="71"/>
-      <c r="K161" s="71"/>
+      <c r="K161" s="81"/>
       <c r="L161" s="83"/>
       <c r="M161" s="83"/>
       <c r="N161" s="83" t="s">
@@ -15206,7 +15470,7 @@
       <c r="H162" s="71"/>
       <c r="I162" s="71"/>
       <c r="J162" s="71"/>
-      <c r="K162" s="71"/>
+      <c r="K162" s="81"/>
       <c r="L162" s="83"/>
       <c r="M162" s="83"/>
       <c r="N162" s="83" t="s">
@@ -15232,7 +15496,7 @@
       <c r="H163" s="71"/>
       <c r="I163" s="71"/>
       <c r="J163" s="71"/>
-      <c r="K163" s="71"/>
+      <c r="K163" s="81"/>
       <c r="L163" s="83"/>
       <c r="M163" s="83"/>
       <c r="N163" s="83" t="s">
@@ -15258,7 +15522,7 @@
       <c r="H164" s="71"/>
       <c r="I164" s="71"/>
       <c r="J164" s="71"/>
-      <c r="K164" s="71"/>
+      <c r="K164" s="81"/>
       <c r="L164" s="83"/>
       <c r="M164" s="83"/>
       <c r="N164" s="83" t="s">
@@ -15284,7 +15548,7 @@
       <c r="H165" s="71"/>
       <c r="I165" s="71"/>
       <c r="J165" s="71"/>
-      <c r="K165" s="71"/>
+      <c r="K165" s="81"/>
       <c r="L165" s="83"/>
       <c r="M165" s="83"/>
       <c r="N165" s="83" t="s">
@@ -15310,7 +15574,7 @@
       <c r="H166" s="71"/>
       <c r="I166" s="71"/>
       <c r="J166" s="71"/>
-      <c r="K166" s="71"/>
+      <c r="K166" s="81"/>
       <c r="L166" s="83"/>
       <c r="M166" s="83"/>
       <c r="N166" s="83" t="s">
@@ -19014,7 +19278,7 @@
       <c r="H301" s="71"/>
       <c r="I301" s="71"/>
       <c r="J301" s="71"/>
-      <c r="K301" s="71"/>
+      <c r="K301" s="81"/>
       <c r="L301" s="83"/>
       <c r="M301" s="83"/>
       <c r="N301" s="83" t="s">
@@ -19044,7 +19308,7 @@
       <c r="H302" s="71"/>
       <c r="I302" s="71"/>
       <c r="J302" s="71"/>
-      <c r="K302" s="71"/>
+      <c r="K302" s="81"/>
       <c r="L302" s="83"/>
       <c r="M302" s="83"/>
       <c r="N302" s="83" t="s">
@@ -19074,7 +19338,7 @@
       <c r="H303" s="71"/>
       <c r="I303" s="71"/>
       <c r="J303" s="71"/>
-      <c r="K303" s="71"/>
+      <c r="K303" s="81"/>
       <c r="L303" s="83"/>
       <c r="M303" s="83"/>
       <c r="N303" s="83" t="s">
@@ -19100,10 +19364,12 @@
       <c r="H304" s="71"/>
       <c r="I304" s="71"/>
       <c r="J304" s="71"/>
-      <c r="K304" s="71"/>
+      <c r="K304" s="81"/>
       <c r="L304" s="83"/>
       <c r="M304" s="83"/>
-      <c r="N304" s="83"/>
+      <c r="N304" s="83" t="s">
+        <v>2670</v>
+      </c>
     </row>
     <row r="305" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="75">
@@ -19124,10 +19390,12 @@
       <c r="H305" s="71"/>
       <c r="I305" s="71"/>
       <c r="J305" s="71"/>
-      <c r="K305" s="71"/>
+      <c r="K305" s="81"/>
       <c r="L305" s="83"/>
       <c r="M305" s="83"/>
-      <c r="N305" s="83"/>
+      <c r="N305" s="83" t="s">
+        <v>2670</v>
+      </c>
     </row>
     <row r="306" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="75">
@@ -19148,10 +19416,12 @@
       <c r="H306" s="71"/>
       <c r="I306" s="71"/>
       <c r="J306" s="71"/>
-      <c r="K306" s="71"/>
+      <c r="K306" s="81"/>
       <c r="L306" s="83"/>
       <c r="M306" s="83"/>
-      <c r="N306" s="83"/>
+      <c r="N306" s="83" t="s">
+        <v>2670</v>
+      </c>
     </row>
     <row r="307" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="75">
@@ -19172,10 +19442,14 @@
       <c r="H307" s="71"/>
       <c r="I307" s="71"/>
       <c r="J307" s="71"/>
-      <c r="K307" s="71"/>
+      <c r="K307" s="81" t="s">
+        <v>2821</v>
+      </c>
       <c r="L307" s="83"/>
       <c r="M307" s="83"/>
-      <c r="N307" s="83"/>
+      <c r="N307" s="83" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="308" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="75">
@@ -19200,10 +19474,12 @@
       <c r="H308" s="71"/>
       <c r="I308" s="71"/>
       <c r="J308" s="71"/>
-      <c r="K308" s="71"/>
+      <c r="K308" s="81"/>
       <c r="L308" s="83"/>
       <c r="M308" s="83"/>
-      <c r="N308" s="83"/>
+      <c r="N308" s="83" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="309" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="75">
@@ -19224,10 +19500,14 @@
       <c r="H309" s="71"/>
       <c r="I309" s="71"/>
       <c r="J309" s="71"/>
-      <c r="K309" s="71"/>
+      <c r="K309" s="81" t="s">
+        <v>2822</v>
+      </c>
       <c r="L309" s="83"/>
       <c r="M309" s="83"/>
-      <c r="N309" s="83"/>
+      <c r="N309" s="83" t="s">
+        <v>2670</v>
+      </c>
     </row>
     <row r="310" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="75">
@@ -19248,10 +19528,14 @@
       <c r="H310" s="71"/>
       <c r="I310" s="71"/>
       <c r="J310" s="71"/>
-      <c r="K310" s="71"/>
+      <c r="K310" s="81" t="s">
+        <v>2823</v>
+      </c>
       <c r="L310" s="83"/>
       <c r="M310" s="83"/>
-      <c r="N310" s="83"/>
+      <c r="N310" s="83" t="s">
+        <v>2670</v>
+      </c>
     </row>
     <row r="311" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="75">
@@ -19272,10 +19556,12 @@
       <c r="H311" s="71"/>
       <c r="I311" s="71"/>
       <c r="J311" s="71"/>
-      <c r="K311" s="71"/>
+      <c r="K311" s="81"/>
       <c r="L311" s="83"/>
       <c r="M311" s="83"/>
-      <c r="N311" s="83"/>
+      <c r="N311" s="83" t="s">
+        <v>2670</v>
+      </c>
     </row>
     <row r="312" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="75">
@@ -19300,10 +19586,12 @@
       <c r="H312" s="71"/>
       <c r="I312" s="71"/>
       <c r="J312" s="71"/>
-      <c r="K312" s="71"/>
+      <c r="K312" s="81"/>
       <c r="L312" s="83"/>
       <c r="M312" s="83"/>
-      <c r="N312" s="83"/>
+      <c r="N312" s="83" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="313" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="75">
@@ -19324,10 +19612,12 @@
       <c r="H313" s="71"/>
       <c r="I313" s="71"/>
       <c r="J313" s="71"/>
-      <c r="K313" s="71"/>
+      <c r="K313" s="81"/>
       <c r="L313" s="83"/>
       <c r="M313" s="83"/>
-      <c r="N313" s="83"/>
+      <c r="N313" s="83" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="314" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="75">
@@ -19348,10 +19638,12 @@
       <c r="H314" s="71"/>
       <c r="I314" s="71"/>
       <c r="J314" s="71"/>
-      <c r="K314" s="71"/>
+      <c r="K314" s="81"/>
       <c r="L314" s="83"/>
       <c r="M314" s="83"/>
-      <c r="N314" s="83"/>
+      <c r="N314" s="83" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="315" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="75">
@@ -19372,10 +19664,14 @@
       <c r="H315" s="71"/>
       <c r="I315" s="71"/>
       <c r="J315" s="71"/>
-      <c r="K315" s="71"/>
+      <c r="K315" s="81" t="s">
+        <v>2824</v>
+      </c>
       <c r="L315" s="83"/>
       <c r="M315" s="83"/>
-      <c r="N315" s="83"/>
+      <c r="N315" s="83" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="316" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="75">
@@ -19400,10 +19696,12 @@
       <c r="H316" s="71"/>
       <c r="I316" s="71"/>
       <c r="J316" s="71"/>
-      <c r="K316" s="71"/>
+      <c r="K316" s="81"/>
       <c r="L316" s="83"/>
       <c r="M316" s="83"/>
-      <c r="N316" s="83"/>
+      <c r="N316" s="83" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="317" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="75">
@@ -19428,10 +19726,12 @@
       <c r="H317" s="71"/>
       <c r="I317" s="71"/>
       <c r="J317" s="71"/>
-      <c r="K317" s="71"/>
+      <c r="K317" s="81"/>
       <c r="L317" s="83"/>
       <c r="M317" s="83"/>
-      <c r="N317" s="83"/>
+      <c r="N317" s="83" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="318" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="75">
@@ -19452,10 +19752,12 @@
       <c r="H318" s="71"/>
       <c r="I318" s="71"/>
       <c r="J318" s="71"/>
-      <c r="K318" s="71"/>
+      <c r="K318" s="81"/>
       <c r="L318" s="83"/>
       <c r="M318" s="83"/>
-      <c r="N318" s="83"/>
+      <c r="N318" s="83" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="319" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="75">
@@ -19476,10 +19778,12 @@
       <c r="H319" s="71"/>
       <c r="I319" s="71"/>
       <c r="J319" s="71"/>
-      <c r="K319" s="71"/>
+      <c r="K319" s="81"/>
       <c r="L319" s="83"/>
       <c r="M319" s="83"/>
-      <c r="N319" s="83"/>
+      <c r="N319" s="83" t="s">
+        <v>2670</v>
+      </c>
     </row>
     <row r="320" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="75">
@@ -19500,10 +19804,12 @@
       <c r="H320" s="71"/>
       <c r="I320" s="71"/>
       <c r="J320" s="71"/>
-      <c r="K320" s="71"/>
+      <c r="K320" s="81"/>
       <c r="L320" s="83"/>
       <c r="M320" s="83"/>
-      <c r="N320" s="83"/>
+      <c r="N320" s="83" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="321" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="75">
@@ -19528,10 +19834,12 @@
       <c r="H321" s="71"/>
       <c r="I321" s="71"/>
       <c r="J321" s="71"/>
-      <c r="K321" s="71"/>
+      <c r="K321" s="81"/>
       <c r="L321" s="83"/>
       <c r="M321" s="83"/>
-      <c r="N321" s="83"/>
+      <c r="N321" s="83" t="s">
+        <v>2665</v>
+      </c>
     </row>
     <row r="322" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="75">
@@ -19556,10 +19864,12 @@
       <c r="H322" s="71"/>
       <c r="I322" s="71"/>
       <c r="J322" s="71"/>
-      <c r="K322" s="71"/>
+      <c r="K322" s="81"/>
       <c r="L322" s="83"/>
       <c r="M322" s="83"/>
-      <c r="N322" s="83"/>
+      <c r="N322" s="83" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="323" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="75">
@@ -19584,10 +19894,12 @@
       <c r="H323" s="71"/>
       <c r="I323" s="71"/>
       <c r="J323" s="71"/>
-      <c r="K323" s="71"/>
+      <c r="K323" s="81"/>
       <c r="L323" s="83"/>
       <c r="M323" s="83"/>
-      <c r="N323" s="83"/>
+      <c r="N323" s="83" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="324" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="75">
@@ -19608,10 +19920,12 @@
       <c r="H324" s="71"/>
       <c r="I324" s="71"/>
       <c r="J324" s="71"/>
-      <c r="K324" s="71"/>
+      <c r="K324" s="81"/>
       <c r="L324" s="83"/>
       <c r="M324" s="83"/>
-      <c r="N324" s="83"/>
+      <c r="N324" s="83" t="s">
+        <v>2670</v>
+      </c>
     </row>
     <row r="325" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="75">
@@ -19632,10 +19946,12 @@
       <c r="H325" s="71"/>
       <c r="I325" s="71"/>
       <c r="J325" s="71"/>
-      <c r="K325" s="71"/>
+      <c r="K325" s="81"/>
       <c r="L325" s="83"/>
       <c r="M325" s="83"/>
-      <c r="N325" s="83"/>
+      <c r="N325" s="83" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="326" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="75">
@@ -19656,10 +19972,12 @@
       <c r="H326" s="71"/>
       <c r="I326" s="71"/>
       <c r="J326" s="71"/>
-      <c r="K326" s="71"/>
+      <c r="K326" s="81"/>
       <c r="L326" s="83"/>
       <c r="M326" s="83"/>
-      <c r="N326" s="83"/>
+      <c r="N326" s="83" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="327" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="75">
@@ -19674,16 +19992,22 @@
       <c r="D327" s="34" t="s">
         <v>2126</v>
       </c>
-      <c r="E327" s="85"/>
-      <c r="F327" s="85"/>
+      <c r="E327" s="85" t="s">
+        <v>2652</v>
+      </c>
+      <c r="F327" s="85" t="s">
+        <v>2653</v>
+      </c>
       <c r="G327" s="71"/>
       <c r="H327" s="71"/>
       <c r="I327" s="71"/>
       <c r="J327" s="71"/>
-      <c r="K327" s="71"/>
+      <c r="K327" s="81"/>
       <c r="L327" s="83"/>
       <c r="M327" s="83"/>
-      <c r="N327" s="83"/>
+      <c r="N327" s="83" t="s">
+        <v>2665</v>
+      </c>
     </row>
     <row r="328" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="75">
@@ -19704,10 +20028,12 @@
       <c r="H328" s="71"/>
       <c r="I328" s="71"/>
       <c r="J328" s="71"/>
-      <c r="K328" s="71"/>
+      <c r="K328" s="81"/>
       <c r="L328" s="83"/>
       <c r="M328" s="83"/>
-      <c r="N328" s="83"/>
+      <c r="N328" s="83" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="329" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="75">
@@ -19728,10 +20054,12 @@
       <c r="H329" s="71"/>
       <c r="I329" s="71"/>
       <c r="J329" s="71"/>
-      <c r="K329" s="71"/>
+      <c r="K329" s="81"/>
       <c r="L329" s="83"/>
       <c r="M329" s="83"/>
-      <c r="N329" s="83"/>
+      <c r="N329" s="83" t="s">
+        <v>2670</v>
+      </c>
     </row>
     <row r="330" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="75">
@@ -19752,10 +20080,12 @@
       <c r="H330" s="71"/>
       <c r="I330" s="71"/>
       <c r="J330" s="71"/>
-      <c r="K330" s="71"/>
+      <c r="K330" s="81"/>
       <c r="L330" s="83"/>
       <c r="M330" s="83"/>
-      <c r="N330" s="83"/>
+      <c r="N330" s="83" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="331" spans="1:14" s="73" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="75">
@@ -19780,10 +20110,12 @@
       <c r="H331" s="71"/>
       <c r="I331" s="71"/>
       <c r="J331" s="71"/>
-      <c r="K331" s="71"/>
+      <c r="K331" s="81"/>
       <c r="L331" s="83"/>
       <c r="M331" s="83"/>
-      <c r="N331" s="83"/>
+      <c r="N331" s="83" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="332" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
@@ -19808,7 +20140,9 @@
       <c r="K332" s="10"/>
       <c r="L332" s="10"/>
       <c r="M332" s="10"/>
-      <c r="N332" s="10"/>
+      <c r="N332" s="10" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="333" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
@@ -19836,7 +20170,9 @@
       <c r="K333" s="10"/>
       <c r="L333" s="10"/>
       <c r="M333" s="10"/>
-      <c r="N333" s="10"/>
+      <c r="N333" s="10" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="334" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
@@ -19864,7 +20200,9 @@
       <c r="K334" s="10"/>
       <c r="L334" s="10"/>
       <c r="M334" s="10"/>
-      <c r="N334" s="10"/>
+      <c r="N334" s="10" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="335" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
@@ -19889,9 +20227,11 @@
       <c r="K335" s="10"/>
       <c r="L335" s="10"/>
       <c r="M335" s="10"/>
-      <c r="N335" s="10"/>
-    </row>
-    <row r="336" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N335" s="10" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="5">
         <v>18</v>
       </c>
@@ -19904,8 +20244,12 @@
       <c r="D336" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="E336" s="10"/>
-      <c r="F336" s="10"/>
+      <c r="E336" s="85" t="s">
+        <v>2648</v>
+      </c>
+      <c r="F336" s="85" t="s">
+        <v>2649</v>
+      </c>
       <c r="G336" s="10"/>
       <c r="H336" s="10"/>
       <c r="I336" s="10"/>
@@ -19913,7 +20257,9 @@
       <c r="K336" s="10"/>
       <c r="L336" s="10"/>
       <c r="M336" s="10"/>
-      <c r="N336" s="10"/>
+      <c r="N336" s="10" t="s">
+        <v>2665</v>
+      </c>
     </row>
     <row r="337" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
@@ -19938,7 +20284,9 @@
       <c r="K337" s="10"/>
       <c r="L337" s="10"/>
       <c r="M337" s="10"/>
-      <c r="N337" s="10"/>
+      <c r="N337" s="10" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="338" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
@@ -19953,8 +20301,12 @@
       <c r="D338" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="E338" s="10"/>
-      <c r="F338" s="10"/>
+      <c r="E338" s="10" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F338" s="10" t="s">
+        <v>2582</v>
+      </c>
       <c r="G338" s="10"/>
       <c r="H338" s="10"/>
       <c r="I338" s="10"/>
@@ -19962,7 +20314,9 @@
       <c r="K338" s="10"/>
       <c r="L338" s="10"/>
       <c r="M338" s="10"/>
-      <c r="N338" s="10"/>
+      <c r="N338" s="10" t="s">
+        <v>2665</v>
+      </c>
     </row>
     <row r="339" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="45">
@@ -20025,8 +20379,12 @@
       <c r="D341" s="46" t="s">
         <v>1824</v>
       </c>
-      <c r="E341" s="10"/>
-      <c r="F341" s="10"/>
+      <c r="E341" s="10" t="s">
+        <v>2844</v>
+      </c>
+      <c r="F341" s="10" t="s">
+        <v>2843</v>
+      </c>
       <c r="G341" s="10"/>
       <c r="H341" s="10"/>
       <c r="I341" s="10"/>
@@ -20047,10 +20405,18 @@
         <v>1657</v>
       </c>
       <c r="D342" s="46"/>
-      <c r="E342" s="10"/>
-      <c r="F342" s="10"/>
-      <c r="G342" s="10"/>
-      <c r="H342" s="10"/>
+      <c r="E342" s="10" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F342" s="10" t="s">
+        <v>2825</v>
+      </c>
+      <c r="G342" s="10" t="s">
+        <v>2828</v>
+      </c>
+      <c r="H342" s="10" t="s">
+        <v>2827</v>
+      </c>
       <c r="I342" s="10"/>
       <c r="J342" s="10"/>
       <c r="K342" s="10"/>
@@ -20069,10 +20435,18 @@
         <v>1658</v>
       </c>
       <c r="D343" s="46"/>
-      <c r="E343" s="10"/>
-      <c r="F343" s="10"/>
-      <c r="G343" s="10"/>
-      <c r="H343" s="10"/>
+      <c r="E343" s="10" t="s">
+        <v>2830</v>
+      </c>
+      <c r="F343" s="10" t="s">
+        <v>2829</v>
+      </c>
+      <c r="G343" s="10" t="s">
+        <v>2831</v>
+      </c>
+      <c r="H343" s="10" t="s">
+        <v>2832</v>
+      </c>
       <c r="I343" s="10"/>
       <c r="J343" s="10"/>
       <c r="K343" s="10"/>
@@ -20115,8 +20489,12 @@
         <v>1660</v>
       </c>
       <c r="D345" s="46"/>
-      <c r="E345" s="10"/>
-      <c r="F345" s="10"/>
+      <c r="E345" s="10" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F345" s="10" t="s">
+        <v>2841</v>
+      </c>
       <c r="G345" s="10"/>
       <c r="H345" s="10"/>
       <c r="I345" s="10"/>
@@ -20139,12 +20517,24 @@
       <c r="D346" s="46" t="s">
         <v>1815</v>
       </c>
-      <c r="E346" s="10"/>
-      <c r="F346" s="10"/>
-      <c r="G346" s="10"/>
-      <c r="H346" s="10"/>
-      <c r="I346" s="10"/>
-      <c r="J346" s="10"/>
+      <c r="E346" s="10" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F346" s="10" t="s">
+        <v>2833</v>
+      </c>
+      <c r="G346" s="10" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H346" s="10" t="s">
+        <v>2835</v>
+      </c>
+      <c r="I346" s="10" t="s">
+        <v>2571</v>
+      </c>
+      <c r="J346" s="10" t="s">
+        <v>2572</v>
+      </c>
       <c r="K346" s="10"/>
       <c r="L346" s="10"/>
       <c r="M346" s="10"/>
@@ -20163,8 +20553,12 @@
       <c r="D347" s="46" t="s">
         <v>1498</v>
       </c>
-      <c r="E347" s="10"/>
-      <c r="F347" s="10"/>
+      <c r="E347" s="29" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F347" s="29" t="s">
+        <v>2845</v>
+      </c>
       <c r="G347" s="10"/>
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
@@ -20187,8 +20581,12 @@
       <c r="D348" s="46" t="s">
         <v>1816</v>
       </c>
-      <c r="E348" s="10"/>
-      <c r="F348" s="10"/>
+      <c r="E348" s="10" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F348" s="10" t="s">
+        <v>2837</v>
+      </c>
       <c r="G348" s="10"/>
       <c r="H348" s="10"/>
       <c r="I348" s="10"/>
@@ -20259,8 +20657,12 @@
       <c r="D351" s="10" t="s">
         <v>1819</v>
       </c>
-      <c r="E351" s="10"/>
-      <c r="F351" s="10"/>
+      <c r="E351" s="29" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F351" s="29" t="s">
+        <v>2839</v>
+      </c>
       <c r="G351" s="10"/>
       <c r="H351" s="10"/>
       <c r="I351" s="10"/>
@@ -20329,8 +20731,12 @@
       <c r="D354" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="E354" s="10"/>
-      <c r="F354" s="10"/>
+      <c r="E354" s="10" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F354" s="10" t="s">
+        <v>2603</v>
+      </c>
       <c r="G354" s="10"/>
       <c r="H354" s="10"/>
       <c r="I354" s="10"/>
@@ -20350,10 +20756,18 @@
       <c r="C355" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E355" s="10"/>
-      <c r="F355" s="10"/>
-      <c r="G355" s="10"/>
-      <c r="H355" s="10"/>
+      <c r="E355" s="10" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F355" s="10" t="s">
+        <v>2849</v>
+      </c>
+      <c r="G355" s="10" t="s">
+        <v>2847</v>
+      </c>
+      <c r="H355" s="10" t="s">
+        <v>2848</v>
+      </c>
       <c r="I355" s="10"/>
       <c r="J355" s="10"/>
       <c r="K355" s="10"/>
@@ -20463,10 +20877,18 @@
       <c r="C360" s="38" t="s">
         <v>2734</v>
       </c>
-      <c r="E360" s="10"/>
-      <c r="F360" s="10"/>
-      <c r="G360" s="10"/>
-      <c r="H360" s="10"/>
+      <c r="E360" s="10" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F360" s="10" t="s">
+        <v>2852</v>
+      </c>
+      <c r="G360" s="10" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H360" s="10" t="s">
+        <v>2850</v>
+      </c>
       <c r="I360" s="10"/>
       <c r="J360" s="10"/>
       <c r="K360" s="10"/>
@@ -20517,7 +20939,7 @@
       <c r="H362" s="71"/>
       <c r="I362" s="71"/>
       <c r="J362" s="71"/>
-      <c r="K362" s="71"/>
+      <c r="K362" s="81"/>
       <c r="L362" s="83"/>
       <c r="M362" s="83"/>
       <c r="N362" s="83"/>
@@ -20541,7 +20963,7 @@
       <c r="H363" s="71"/>
       <c r="I363" s="71"/>
       <c r="J363" s="71"/>
-      <c r="K363" s="71"/>
+      <c r="K363" s="81"/>
       <c r="L363" s="83"/>
       <c r="M363" s="83"/>
       <c r="N363" s="83"/>
@@ -20559,13 +20981,17 @@
       <c r="D364" s="34" t="s">
         <v>2151</v>
       </c>
-      <c r="E364" s="71"/>
-      <c r="F364" s="72"/>
+      <c r="E364" s="90" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F364" s="88" t="s">
+        <v>2589</v>
+      </c>
       <c r="G364" s="71"/>
       <c r="H364" s="71"/>
       <c r="I364" s="71"/>
       <c r="J364" s="71"/>
-      <c r="K364" s="71"/>
+      <c r="K364" s="81"/>
       <c r="L364" s="83"/>
       <c r="M364" s="83"/>
       <c r="N364" s="83"/>
@@ -20589,7 +21015,7 @@
       <c r="H365" s="71"/>
       <c r="I365" s="71"/>
       <c r="J365" s="71"/>
-      <c r="K365" s="71"/>
+      <c r="K365" s="81"/>
       <c r="L365" s="83"/>
       <c r="M365" s="83"/>
       <c r="N365" s="83"/>
@@ -20613,7 +21039,7 @@
       <c r="H366" s="71"/>
       <c r="I366" s="71"/>
       <c r="J366" s="71"/>
-      <c r="K366" s="71"/>
+      <c r="K366" s="81"/>
       <c r="L366" s="83"/>
       <c r="M366" s="83"/>
       <c r="N366" s="83"/>
@@ -20637,7 +21063,7 @@
       <c r="H367" s="71"/>
       <c r="I367" s="71"/>
       <c r="J367" s="71"/>
-      <c r="K367" s="71"/>
+      <c r="K367" s="81"/>
       <c r="L367" s="83"/>
       <c r="M367" s="83"/>
       <c r="N367" s="83"/>
@@ -20655,8 +21081,12 @@
       <c r="D368" s="47" t="s">
         <v>1825</v>
       </c>
-      <c r="E368" s="10"/>
-      <c r="F368" s="10"/>
+      <c r="E368" s="10" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F368" s="10" t="s">
+        <v>2645</v>
+      </c>
       <c r="G368" s="10"/>
       <c r="H368" s="10"/>
       <c r="I368" s="10"/>
@@ -20893,8 +21323,12 @@
       <c r="D378" s="47" t="s">
         <v>1836</v>
       </c>
-      <c r="E378" s="10"/>
-      <c r="F378" s="10"/>
+      <c r="E378" s="10" t="s">
+        <v>2857</v>
+      </c>
+      <c r="F378" s="10" t="s">
+        <v>2856</v>
+      </c>
       <c r="G378" s="10"/>
       <c r="H378" s="10"/>
       <c r="I378" s="10"/>
@@ -20917,8 +21351,12 @@
       <c r="D379" s="47" t="s">
         <v>1837</v>
       </c>
-      <c r="E379" s="10"/>
-      <c r="F379" s="10"/>
+      <c r="E379" s="10" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F379" s="10" t="s">
+        <v>2863</v>
+      </c>
       <c r="G379" s="10"/>
       <c r="H379" s="10"/>
       <c r="I379" s="10"/>
@@ -20941,8 +21379,12 @@
       <c r="D380" s="47" t="s">
         <v>1835</v>
       </c>
-      <c r="E380" s="10"/>
-      <c r="F380" s="10"/>
+      <c r="E380" s="10" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F380" s="10" t="s">
+        <v>2849</v>
+      </c>
       <c r="G380" s="10"/>
       <c r="H380" s="10"/>
       <c r="I380" s="10"/>
@@ -20965,8 +21407,12 @@
       <c r="D381" s="47" t="s">
         <v>1838</v>
       </c>
-      <c r="E381" s="10"/>
-      <c r="F381" s="10"/>
+      <c r="E381" s="10" t="s">
+        <v>2859</v>
+      </c>
+      <c r="F381" s="90" t="s">
+        <v>2858</v>
+      </c>
       <c r="G381" s="10"/>
       <c r="H381" s="10"/>
       <c r="I381" s="10"/>
@@ -21037,10 +21483,18 @@
       <c r="D384" s="47" t="s">
         <v>1834</v>
       </c>
-      <c r="E384" s="10"/>
-      <c r="F384" s="10"/>
-      <c r="G384" s="10"/>
-      <c r="H384" s="10"/>
+      <c r="E384" s="10" t="s">
+        <v>2861</v>
+      </c>
+      <c r="F384" s="10" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G384" s="10" t="s">
+        <v>2541</v>
+      </c>
+      <c r="H384" s="10" t="s">
+        <v>2872</v>
+      </c>
       <c r="I384" s="10"/>
       <c r="J384" s="10"/>
       <c r="K384" s="10"/>
@@ -21149,8 +21603,12 @@
         <v>1679</v>
       </c>
       <c r="D389" s="47"/>
-      <c r="E389" s="10"/>
-      <c r="F389" s="10"/>
+      <c r="E389" s="10" t="s">
+        <v>2891</v>
+      </c>
+      <c r="F389" s="10" t="s">
+        <v>2890</v>
+      </c>
       <c r="G389" s="10"/>
       <c r="H389" s="10"/>
       <c r="I389" s="10"/>
@@ -21173,8 +21631,12 @@
       <c r="D390" s="47" t="s">
         <v>1842</v>
       </c>
-      <c r="E390" s="10"/>
-      <c r="F390" s="10"/>
+      <c r="E390" s="10" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F390" s="10" t="s">
+        <v>2854</v>
+      </c>
       <c r="G390" s="10"/>
       <c r="H390" s="10"/>
       <c r="I390" s="10"/>
@@ -21197,8 +21659,12 @@
       <c r="D391" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="E391" s="10"/>
-      <c r="F391" s="10"/>
+      <c r="E391" s="10" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F391" s="10" t="s">
+        <v>2862</v>
+      </c>
       <c r="G391" s="10"/>
       <c r="H391" s="10"/>
       <c r="I391" s="10"/>
@@ -21245,8 +21711,12 @@
       <c r="D393" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="E393" s="10"/>
-      <c r="F393" s="10"/>
+      <c r="E393" s="10" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F393" s="10" t="s">
+        <v>2902</v>
+      </c>
       <c r="G393" s="10"/>
       <c r="H393" s="10"/>
       <c r="I393" s="10"/>
@@ -21269,8 +21739,12 @@
       <c r="D394" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="E394" s="10"/>
-      <c r="F394" s="10"/>
+      <c r="E394" s="10" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F394" s="10" t="s">
+        <v>2864</v>
+      </c>
       <c r="G394" s="10"/>
       <c r="H394" s="10"/>
       <c r="I394" s="10"/>
@@ -21291,8 +21765,12 @@
         <v>384</v>
       </c>
       <c r="D395" s="42"/>
-      <c r="E395" s="10"/>
-      <c r="F395" s="10"/>
+      <c r="E395" s="10" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F395" s="10" t="s">
+        <v>2864</v>
+      </c>
       <c r="G395" s="10"/>
       <c r="H395" s="10"/>
       <c r="I395" s="10"/>
@@ -21315,8 +21793,12 @@
       <c r="D396" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="E396" s="10"/>
-      <c r="F396" s="10"/>
+      <c r="E396" s="10" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F396" s="10" t="s">
+        <v>2613</v>
+      </c>
       <c r="G396" s="10"/>
       <c r="H396" s="10"/>
       <c r="I396" s="10"/>
@@ -21339,8 +21821,12 @@
       <c r="D397" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="E397" s="10"/>
-      <c r="F397" s="10"/>
+      <c r="E397" s="29" t="s">
+        <v>2626</v>
+      </c>
+      <c r="F397" s="10" t="s">
+        <v>2627</v>
+      </c>
       <c r="G397" s="10"/>
       <c r="H397" s="10"/>
       <c r="I397" s="10"/>
@@ -21363,8 +21849,12 @@
       <c r="D398" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="E398" s="10"/>
-      <c r="F398" s="10"/>
+      <c r="E398" s="10" t="s">
+        <v>2454</v>
+      </c>
+      <c r="F398" s="10" t="s">
+        <v>2628</v>
+      </c>
       <c r="G398" s="10"/>
       <c r="H398" s="10"/>
       <c r="I398" s="10"/>
@@ -21387,8 +21877,12 @@
       <c r="D399" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="E399" s="10"/>
-      <c r="F399" s="10"/>
+      <c r="E399" s="91" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F399" s="10" t="s">
+        <v>2873</v>
+      </c>
       <c r="G399" s="10"/>
       <c r="H399" s="10"/>
       <c r="I399" s="10"/>
@@ -21411,8 +21905,12 @@
       <c r="D400" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="E400" s="10"/>
-      <c r="F400" s="10"/>
+      <c r="E400" s="10" t="s">
+        <v>2867</v>
+      </c>
+      <c r="F400" s="10" t="s">
+        <v>2866</v>
+      </c>
       <c r="G400" s="10"/>
       <c r="H400" s="10"/>
       <c r="I400" s="10"/>
@@ -21433,8 +21931,12 @@
         <v>394</v>
       </c>
       <c r="D401" s="42"/>
-      <c r="E401" s="10"/>
-      <c r="F401" s="10"/>
+      <c r="E401" s="91" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F401" s="10" t="s">
+        <v>2870</v>
+      </c>
       <c r="G401" s="10"/>
       <c r="H401" s="10"/>
       <c r="I401" s="10"/>
@@ -21479,8 +21981,12 @@
       <c r="D403" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="E403" s="10"/>
-      <c r="F403" s="10"/>
+      <c r="E403" s="10" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F403" s="10" t="s">
+        <v>2639</v>
+      </c>
       <c r="G403" s="10"/>
       <c r="H403" s="10"/>
       <c r="I403" s="10"/>
@@ -21527,8 +22033,12 @@
       <c r="D405" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="E405" s="10"/>
-      <c r="F405" s="10"/>
+      <c r="E405" s="10" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F405" s="10" t="s">
+        <v>2877</v>
+      </c>
       <c r="G405" s="10"/>
       <c r="H405" s="10"/>
       <c r="I405" s="10"/>
@@ -21551,8 +22061,12 @@
       <c r="D406" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="E406" s="10"/>
-      <c r="F406" s="10"/>
+      <c r="E406" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F406" s="10" t="s">
+        <v>2632</v>
+      </c>
       <c r="G406" s="10"/>
       <c r="H406" s="10"/>
       <c r="I406" s="10"/>
@@ -21573,10 +22087,18 @@
         <v>401</v>
       </c>
       <c r="D407" s="42"/>
-      <c r="E407" s="10"/>
-      <c r="F407" s="10"/>
-      <c r="G407" s="10"/>
-      <c r="H407" s="10"/>
+      <c r="E407" s="10" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F407" s="10" t="s">
+        <v>2895</v>
+      </c>
+      <c r="G407" s="10" t="s">
+        <v>2834</v>
+      </c>
+      <c r="H407" s="10" t="s">
+        <v>2833</v>
+      </c>
       <c r="I407" s="10"/>
       <c r="J407" s="10"/>
       <c r="K407" s="10"/>
@@ -21595,8 +22117,12 @@
         <v>402</v>
       </c>
       <c r="D408" s="42"/>
-      <c r="E408" s="10"/>
-      <c r="F408" s="10"/>
+      <c r="E408" s="10" t="s">
+        <v>2869</v>
+      </c>
+      <c r="F408" s="10" t="s">
+        <v>2868</v>
+      </c>
       <c r="G408" s="10"/>
       <c r="H408" s="10"/>
       <c r="I408" s="10"/>
@@ -21665,8 +22191,12 @@
       <c r="D411" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="E411" s="10"/>
-      <c r="F411" s="10"/>
+      <c r="E411" s="10" t="s">
+        <v>2876</v>
+      </c>
+      <c r="F411" s="10" t="s">
+        <v>2875</v>
+      </c>
       <c r="G411" s="10"/>
       <c r="H411" s="10"/>
       <c r="I411" s="10"/>
@@ -21689,8 +22219,12 @@
       <c r="D412" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="E412" s="10"/>
-      <c r="F412" s="10"/>
+      <c r="E412" s="10" t="s">
+        <v>2889</v>
+      </c>
+      <c r="F412" s="10" t="s">
+        <v>2888</v>
+      </c>
       <c r="G412" s="10"/>
       <c r="H412" s="10"/>
       <c r="I412" s="10"/>
@@ -21805,8 +22339,12 @@
       <c r="D417" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="E417" s="10"/>
-      <c r="F417" s="10"/>
+      <c r="E417" s="10" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F417" s="10" t="s">
+        <v>2877</v>
+      </c>
       <c r="G417" s="10"/>
       <c r="H417" s="10"/>
       <c r="I417" s="10"/>
@@ -21829,8 +22367,12 @@
       <c r="D418" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="E418" s="10"/>
-      <c r="F418" s="10"/>
+      <c r="E418" s="10" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F418" s="10" t="s">
+        <v>2864</v>
+      </c>
       <c r="G418" s="10"/>
       <c r="H418" s="10"/>
       <c r="I418" s="10"/>
@@ -21854,9 +22396,13 @@
         <v>415</v>
       </c>
       <c r="E419" s="10"/>
-      <c r="F419" s="10"/>
+      <c r="F419" s="10" t="s">
+        <v>2569</v>
+      </c>
       <c r="G419" s="10"/>
-      <c r="H419" s="10"/>
+      <c r="H419" s="10" t="s">
+        <v>2892</v>
+      </c>
       <c r="I419" s="10"/>
       <c r="J419" s="10"/>
       <c r="K419" s="10"/>
@@ -21877,8 +22423,12 @@
       <c r="D420" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="E420" s="10"/>
-      <c r="F420" s="10"/>
+      <c r="E420" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F420" s="10" t="s">
+        <v>2632</v>
+      </c>
       <c r="G420" s="10"/>
       <c r="H420" s="10"/>
       <c r="I420" s="10"/>
@@ -21901,8 +22451,12 @@
       <c r="D421" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="E421" s="10"/>
-      <c r="F421" s="10"/>
+      <c r="E421" s="10" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F421" s="10" t="s">
+        <v>2639</v>
+      </c>
       <c r="G421" s="10"/>
       <c r="H421" s="10"/>
       <c r="I421" s="10"/>
@@ -21947,8 +22501,12 @@
       <c r="D423" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="E423" s="10"/>
-      <c r="F423" s="10"/>
+      <c r="E423" s="93" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F423" s="10" t="s">
+        <v>2873</v>
+      </c>
       <c r="G423" s="10"/>
       <c r="H423" s="10"/>
       <c r="I423" s="10"/>
@@ -21968,7 +22526,7 @@
       <c r="C424" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="D424" s="17"/>
+      <c r="D424" s="94"/>
       <c r="E424" s="10"/>
       <c r="F424" s="10"/>
       <c r="G424" s="10"/>
@@ -21993,8 +22551,12 @@
       <c r="D425" s="57" t="s">
         <v>421</v>
       </c>
-      <c r="E425" s="10"/>
-      <c r="F425" s="10"/>
+      <c r="E425" s="10" t="s">
+        <v>2880</v>
+      </c>
+      <c r="F425" s="10" t="s">
+        <v>2879</v>
+      </c>
       <c r="G425" s="10"/>
       <c r="H425" s="10"/>
       <c r="I425" s="10"/>
@@ -22017,8 +22579,12 @@
       <c r="D426" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="E426" s="10"/>
-      <c r="F426" s="10"/>
+      <c r="E426" s="10" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F426" s="10" t="s">
+        <v>2881</v>
+      </c>
       <c r="G426" s="10"/>
       <c r="H426" s="10"/>
       <c r="I426" s="10"/>
@@ -22041,8 +22607,12 @@
       <c r="D427" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="E427" s="10"/>
-      <c r="F427" s="10"/>
+      <c r="E427" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F427" s="10" t="s">
+        <v>2632</v>
+      </c>
       <c r="G427" s="10"/>
       <c r="H427" s="10"/>
       <c r="I427" s="10"/>
@@ -22065,8 +22635,12 @@
       <c r="D428" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E428" s="10"/>
-      <c r="F428" s="10"/>
+      <c r="E428" s="52" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F428" s="52" t="s">
+        <v>2883</v>
+      </c>
       <c r="G428" s="10"/>
       <c r="H428" s="10"/>
       <c r="I428" s="10"/>
@@ -22161,8 +22735,12 @@
       <c r="D432" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="E432" s="10"/>
-      <c r="F432" s="10"/>
+      <c r="E432" s="10" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F432" s="10" t="s">
+        <v>2886</v>
+      </c>
       <c r="G432" s="10"/>
       <c r="H432" s="10"/>
       <c r="I432" s="10"/>
@@ -22183,10 +22761,18 @@
         <v>435</v>
       </c>
       <c r="D433" s="15"/>
-      <c r="E433" s="10"/>
-      <c r="F433" s="10"/>
-      <c r="G433" s="10"/>
-      <c r="H433" s="10"/>
+      <c r="E433" s="10" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F433" s="10" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G433" s="10" t="s">
+        <v>2626</v>
+      </c>
+      <c r="H433" s="10" t="s">
+        <v>2627</v>
+      </c>
       <c r="I433" s="10"/>
       <c r="J433" s="10"/>
       <c r="K433" s="10"/>
@@ -22423,8 +23009,12 @@
       <c r="D443" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="E443" s="10"/>
-      <c r="F443" s="10"/>
+      <c r="E443" s="52" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F443" s="52" t="s">
+        <v>2570</v>
+      </c>
       <c r="G443" s="10"/>
       <c r="H443" s="10"/>
       <c r="I443" s="10"/>
@@ -22447,8 +23037,12 @@
       <c r="D444" s="10" t="s">
         <v>1843</v>
       </c>
-      <c r="E444" s="10"/>
-      <c r="F444" s="10"/>
+      <c r="E444" s="52" t="s">
+        <v>2897</v>
+      </c>
+      <c r="F444" s="52" t="s">
+        <v>2896</v>
+      </c>
       <c r="G444" s="10"/>
       <c r="H444" s="10"/>
       <c r="I444" s="10"/>
@@ -22471,8 +23065,12 @@
       <c r="D445" s="10" t="s">
         <v>1844</v>
       </c>
-      <c r="E445" s="10"/>
-      <c r="F445" s="10"/>
+      <c r="E445" s="52" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F445" s="52" t="s">
+        <v>2898</v>
+      </c>
       <c r="G445" s="10"/>
       <c r="H445" s="10"/>
       <c r="I445" s="10"/>
@@ -22519,8 +23117,12 @@
       <c r="D447" s="10" t="s">
         <v>1846</v>
       </c>
-      <c r="E447" s="10"/>
-      <c r="F447" s="10"/>
+      <c r="E447" s="10" t="s">
+        <v>2885</v>
+      </c>
+      <c r="F447" s="10" t="s">
+        <v>2884</v>
+      </c>
       <c r="G447" s="10"/>
       <c r="H447" s="10"/>
       <c r="I447" s="10"/>
@@ -22543,8 +23145,12 @@
       <c r="D448" s="10" t="s">
         <v>1847</v>
       </c>
-      <c r="E448" s="10"/>
-      <c r="F448" s="10"/>
+      <c r="E448" s="10" t="s">
+        <v>2876</v>
+      </c>
+      <c r="F448" s="10" t="s">
+        <v>2899</v>
+      </c>
       <c r="G448" s="10"/>
       <c r="H448" s="10"/>
       <c r="I448" s="10"/>
@@ -22567,8 +23173,12 @@
       <c r="D449" s="10" t="s">
         <v>1848</v>
       </c>
-      <c r="E449" s="10"/>
-      <c r="F449" s="10"/>
+      <c r="E449" s="52" t="s">
+        <v>2880</v>
+      </c>
+      <c r="F449" s="52" t="s">
+        <v>2879</v>
+      </c>
       <c r="G449" s="10"/>
       <c r="H449" s="10"/>
       <c r="I449" s="10"/>
@@ -22591,8 +23201,12 @@
       <c r="D450" s="10" t="s">
         <v>1849</v>
       </c>
-      <c r="E450" s="10"/>
-      <c r="F450" s="10"/>
+      <c r="E450" s="92" t="s">
+        <v>2901</v>
+      </c>
+      <c r="F450" s="10" t="s">
+        <v>2900</v>
+      </c>
       <c r="G450" s="10"/>
       <c r="H450" s="10"/>
       <c r="I450" s="10"/>
@@ -22687,8 +23301,12 @@
       <c r="D454" s="10" t="s">
         <v>1853</v>
       </c>
-      <c r="E454" s="10"/>
-      <c r="F454" s="10"/>
+      <c r="E454" s="52" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F454" s="52" t="s">
+        <v>2632</v>
+      </c>
       <c r="G454" s="10"/>
       <c r="H454" s="10"/>
       <c r="I454" s="10"/>
@@ -23014,8 +23632,12 @@
       <c r="D468" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="E468" s="10"/>
-      <c r="F468" s="10"/>
+      <c r="E468" s="52" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F468" s="52" t="s">
+        <v>2862</v>
+      </c>
       <c r="G468" s="10"/>
       <c r="H468" s="10"/>
       <c r="I468" s="10"/>
@@ -23158,8 +23780,12 @@
       <c r="D474" s="46" t="s">
         <v>1857</v>
       </c>
-      <c r="E474" s="10"/>
-      <c r="F474" s="10"/>
+      <c r="E474" s="10" t="s">
+        <v>2894</v>
+      </c>
+      <c r="F474" s="10" t="s">
+        <v>2893</v>
+      </c>
       <c r="G474" s="10"/>
       <c r="H474" s="10"/>
       <c r="I474" s="10"/>
@@ -23206,8 +23832,12 @@
       <c r="D476" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="E476" s="10"/>
-      <c r="F476" s="10"/>
+      <c r="E476" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F476" s="10" t="s">
+        <v>2632</v>
+      </c>
       <c r="G476" s="10"/>
       <c r="H476" s="10"/>
       <c r="I476" s="10"/>
@@ -23540,12 +24170,24 @@
       <c r="D490" s="46" t="s">
         <v>1871</v>
       </c>
-      <c r="E490" s="10"/>
-      <c r="F490" s="10"/>
-      <c r="G490" s="10"/>
-      <c r="H490" s="10"/>
-      <c r="I490" s="10"/>
-      <c r="J490" s="10"/>
+      <c r="E490" s="10" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F490" s="10" t="s">
+        <v>2582</v>
+      </c>
+      <c r="G490" s="10" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H490" s="10" t="s">
+        <v>2621</v>
+      </c>
+      <c r="I490" s="10" t="s">
+        <v>2662</v>
+      </c>
+      <c r="J490" s="10" t="s">
+        <v>2663</v>
+      </c>
       <c r="K490" s="10"/>
       <c r="L490" s="10"/>
       <c r="M490" s="10"/>
@@ -23640,7 +24282,7 @@
       <c r="H494" s="71"/>
       <c r="I494" s="71"/>
       <c r="J494" s="71"/>
-      <c r="K494" s="71"/>
+      <c r="K494" s="81"/>
       <c r="L494" s="83"/>
       <c r="M494" s="83"/>
       <c r="N494" s="83"/>
@@ -23664,7 +24306,7 @@
       <c r="H495" s="71"/>
       <c r="I495" s="71"/>
       <c r="J495" s="71"/>
-      <c r="K495" s="71"/>
+      <c r="K495" s="81"/>
       <c r="L495" s="83"/>
       <c r="M495" s="83"/>
       <c r="N495" s="83"/>
@@ -23688,7 +24330,7 @@
       <c r="H496" s="71"/>
       <c r="I496" s="71"/>
       <c r="J496" s="71"/>
-      <c r="K496" s="71"/>
+      <c r="K496" s="81"/>
       <c r="L496" s="83"/>
       <c r="M496" s="83"/>
       <c r="N496" s="83"/>
@@ -23712,7 +24354,7 @@
       <c r="H497" s="71"/>
       <c r="I497" s="71"/>
       <c r="J497" s="71"/>
-      <c r="K497" s="71"/>
+      <c r="K497" s="81"/>
       <c r="L497" s="83"/>
       <c r="M497" s="83"/>
       <c r="N497" s="83"/>
@@ -23736,7 +24378,7 @@
       <c r="H498" s="71"/>
       <c r="I498" s="71"/>
       <c r="J498" s="71"/>
-      <c r="K498" s="71"/>
+      <c r="K498" s="81"/>
       <c r="L498" s="83"/>
       <c r="M498" s="83"/>
       <c r="N498" s="83"/>
@@ -23760,7 +24402,7 @@
       <c r="H499" s="71"/>
       <c r="I499" s="71"/>
       <c r="J499" s="71"/>
-      <c r="K499" s="71"/>
+      <c r="K499" s="81"/>
       <c r="L499" s="83"/>
       <c r="M499" s="83"/>
       <c r="N499" s="83"/>
@@ -23784,7 +24426,7 @@
       <c r="H500" s="71"/>
       <c r="I500" s="71"/>
       <c r="J500" s="71"/>
-      <c r="K500" s="71"/>
+      <c r="K500" s="81"/>
       <c r="L500" s="83"/>
       <c r="M500" s="83"/>
       <c r="N500" s="83"/>
@@ -23808,7 +24450,7 @@
       <c r="H501" s="71"/>
       <c r="I501" s="71"/>
       <c r="J501" s="71"/>
-      <c r="K501" s="71"/>
+      <c r="K501" s="81"/>
       <c r="L501" s="83"/>
       <c r="M501" s="83"/>
       <c r="N501" s="83"/>
@@ -23832,7 +24474,7 @@
       <c r="H502" s="71"/>
       <c r="I502" s="71"/>
       <c r="J502" s="71"/>
-      <c r="K502" s="71"/>
+      <c r="K502" s="81"/>
       <c r="L502" s="83"/>
       <c r="M502" s="83"/>
       <c r="N502" s="83"/>
@@ -23856,7 +24498,7 @@
       <c r="H503" s="71"/>
       <c r="I503" s="71"/>
       <c r="J503" s="71"/>
-      <c r="K503" s="71"/>
+      <c r="K503" s="81"/>
       <c r="L503" s="83"/>
       <c r="M503" s="83"/>
       <c r="N503" s="83"/>
@@ -23880,7 +24522,7 @@
       <c r="H504" s="71"/>
       <c r="I504" s="71"/>
       <c r="J504" s="71"/>
-      <c r="K504" s="71"/>
+      <c r="K504" s="81"/>
       <c r="L504" s="83"/>
       <c r="M504" s="83"/>
       <c r="N504" s="83"/>
@@ -23904,7 +24546,7 @@
       <c r="H505" s="71"/>
       <c r="I505" s="71"/>
       <c r="J505" s="71"/>
-      <c r="K505" s="71"/>
+      <c r="K505" s="81"/>
       <c r="L505" s="83"/>
       <c r="M505" s="83"/>
       <c r="N505" s="83"/>
@@ -23928,7 +24570,7 @@
       <c r="H506" s="71"/>
       <c r="I506" s="71"/>
       <c r="J506" s="71"/>
-      <c r="K506" s="71"/>
+      <c r="K506" s="81"/>
       <c r="L506" s="83"/>
       <c r="M506" s="83"/>
       <c r="N506" s="83"/>
@@ -23952,7 +24594,7 @@
       <c r="H507" s="71"/>
       <c r="I507" s="71"/>
       <c r="J507" s="71"/>
-      <c r="K507" s="71"/>
+      <c r="K507" s="81"/>
       <c r="L507" s="83"/>
       <c r="M507" s="83"/>
       <c r="N507" s="83"/>
@@ -23976,7 +24618,7 @@
       <c r="H508" s="71"/>
       <c r="I508" s="71"/>
       <c r="J508" s="71"/>
-      <c r="K508" s="71"/>
+      <c r="K508" s="81"/>
       <c r="L508" s="83"/>
       <c r="M508" s="83"/>
       <c r="N508" s="83"/>
@@ -24000,7 +24642,7 @@
       <c r="H509" s="71"/>
       <c r="I509" s="71"/>
       <c r="J509" s="71"/>
-      <c r="K509" s="71"/>
+      <c r="K509" s="81"/>
       <c r="L509" s="83"/>
       <c r="M509" s="83"/>
       <c r="N509" s="83"/>
@@ -24024,7 +24666,7 @@
       <c r="H510" s="71"/>
       <c r="I510" s="71"/>
       <c r="J510" s="71"/>
-      <c r="K510" s="71"/>
+      <c r="K510" s="81"/>
       <c r="L510" s="83"/>
       <c r="M510" s="83"/>
       <c r="N510" s="83"/>
@@ -24048,7 +24690,7 @@
       <c r="H511" s="71"/>
       <c r="I511" s="71"/>
       <c r="J511" s="71"/>
-      <c r="K511" s="71"/>
+      <c r="K511" s="81"/>
       <c r="L511" s="83"/>
       <c r="M511" s="83"/>
       <c r="N511" s="83"/>
@@ -24072,7 +24714,7 @@
       <c r="H512" s="71"/>
       <c r="I512" s="71"/>
       <c r="J512" s="71"/>
-      <c r="K512" s="71"/>
+      <c r="K512" s="81"/>
       <c r="L512" s="83"/>
       <c r="M512" s="83"/>
       <c r="N512" s="83"/>
@@ -24096,7 +24738,7 @@
       <c r="H513" s="71"/>
       <c r="I513" s="71"/>
       <c r="J513" s="71"/>
-      <c r="K513" s="71"/>
+      <c r="K513" s="81"/>
       <c r="L513" s="83"/>
       <c r="M513" s="83"/>
       <c r="N513" s="83"/>
@@ -24120,7 +24762,7 @@
       <c r="H514" s="71"/>
       <c r="I514" s="71"/>
       <c r="J514" s="71"/>
-      <c r="K514" s="71"/>
+      <c r="K514" s="81"/>
       <c r="L514" s="83"/>
       <c r="M514" s="83"/>
       <c r="N514" s="83"/>
@@ -24144,7 +24786,7 @@
       <c r="H515" s="71"/>
       <c r="I515" s="71"/>
       <c r="J515" s="71"/>
-      <c r="K515" s="71"/>
+      <c r="K515" s="81"/>
       <c r="L515" s="83"/>
       <c r="M515" s="83"/>
       <c r="N515" s="83"/>
@@ -24162,13 +24804,19 @@
       <c r="D516" s="36" t="s">
         <v>2200</v>
       </c>
-      <c r="E516" s="71"/>
-      <c r="F516" s="72"/>
-      <c r="G516" s="71"/>
+      <c r="E516" s="89" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F516" s="90" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G516" s="71" t="s">
+        <v>6</v>
+      </c>
       <c r="H516" s="71"/>
       <c r="I516" s="71"/>
       <c r="J516" s="71"/>
-      <c r="K516" s="71"/>
+      <c r="K516" s="81"/>
       <c r="L516" s="83"/>
       <c r="M516" s="83"/>
       <c r="N516" s="83"/>
@@ -24192,7 +24840,7 @@
       <c r="H517" s="71"/>
       <c r="I517" s="71"/>
       <c r="J517" s="71"/>
-      <c r="K517" s="71"/>
+      <c r="K517" s="81"/>
       <c r="L517" s="83"/>
       <c r="M517" s="83"/>
       <c r="N517" s="83"/>
@@ -24216,7 +24864,7 @@
       <c r="H518" s="71"/>
       <c r="I518" s="71"/>
       <c r="J518" s="71"/>
-      <c r="K518" s="71"/>
+      <c r="K518" s="81"/>
       <c r="L518" s="83"/>
       <c r="M518" s="83"/>
       <c r="N518" s="83"/>
@@ -24234,13 +24882,17 @@
       <c r="D519" s="36" t="s">
         <v>2206</v>
       </c>
-      <c r="E519" s="71"/>
-      <c r="F519" s="72"/>
+      <c r="E519" s="89" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F519" s="90" t="s">
+        <v>2877</v>
+      </c>
       <c r="G519" s="71"/>
       <c r="H519" s="71"/>
       <c r="I519" s="71"/>
       <c r="J519" s="71"/>
-      <c r="K519" s="71"/>
+      <c r="K519" s="81"/>
       <c r="L519" s="83"/>
       <c r="M519" s="83"/>
       <c r="N519" s="83"/>
@@ -24264,7 +24916,7 @@
       <c r="H520" s="71"/>
       <c r="I520" s="71"/>
       <c r="J520" s="71"/>
-      <c r="K520" s="71"/>
+      <c r="K520" s="81"/>
       <c r="L520" s="83"/>
       <c r="M520" s="83"/>
       <c r="N520" s="83"/>
@@ -24288,7 +24940,7 @@
       <c r="H521" s="71"/>
       <c r="I521" s="71"/>
       <c r="J521" s="71"/>
-      <c r="K521" s="71"/>
+      <c r="K521" s="81"/>
       <c r="L521" s="83"/>
       <c r="M521" s="83"/>
       <c r="N521" s="83"/>
@@ -24312,7 +24964,7 @@
       <c r="H522" s="71"/>
       <c r="I522" s="71"/>
       <c r="J522" s="71"/>
-      <c r="K522" s="71"/>
+      <c r="K522" s="81"/>
       <c r="L522" s="83"/>
       <c r="M522" s="83"/>
       <c r="N522" s="83"/>
@@ -24336,7 +24988,7 @@
       <c r="H523" s="71"/>
       <c r="I523" s="71"/>
       <c r="J523" s="71"/>
-      <c r="K523" s="71"/>
+      <c r="K523" s="81"/>
       <c r="L523" s="83"/>
       <c r="M523" s="83"/>
       <c r="N523" s="83"/>
@@ -24360,7 +25012,7 @@
       <c r="H524" s="71"/>
       <c r="I524" s="71"/>
       <c r="J524" s="71"/>
-      <c r="K524" s="71"/>
+      <c r="K524" s="81"/>
       <c r="L524" s="83"/>
       <c r="M524" s="83"/>
       <c r="N524" s="83"/>
@@ -24384,7 +25036,7 @@
       <c r="H525" s="71"/>
       <c r="I525" s="71"/>
       <c r="J525" s="71"/>
-      <c r="K525" s="71"/>
+      <c r="K525" s="81"/>
       <c r="L525" s="83"/>
       <c r="M525" s="83"/>
       <c r="N525" s="83"/>
@@ -24408,7 +25060,7 @@
       <c r="H526" s="71"/>
       <c r="I526" s="71"/>
       <c r="J526" s="71"/>
-      <c r="K526" s="71"/>
+      <c r="K526" s="81"/>
       <c r="L526" s="83"/>
       <c r="M526" s="83"/>
       <c r="N526" s="83"/>
@@ -24432,7 +25084,7 @@
       <c r="H527" s="71"/>
       <c r="I527" s="71"/>
       <c r="J527" s="71"/>
-      <c r="K527" s="71"/>
+      <c r="K527" s="81"/>
       <c r="L527" s="83"/>
       <c r="M527" s="83"/>
       <c r="N527" s="83"/>
@@ -25172,8 +25824,12 @@
       <c r="D559" s="46" t="s">
         <v>1880</v>
       </c>
-      <c r="E559" s="10"/>
-      <c r="F559" s="10"/>
+      <c r="E559" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F559" s="10" t="s">
+        <v>2632</v>
+      </c>
       <c r="G559" s="10"/>
       <c r="H559" s="10"/>
       <c r="I559" s="10"/>
@@ -25666,8 +26322,12 @@
       <c r="D580" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="E580" s="10"/>
-      <c r="F580" s="10"/>
+      <c r="E580" s="10" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F580" s="10" t="s">
+        <v>2862</v>
+      </c>
       <c r="G580" s="10"/>
       <c r="H580" s="10"/>
       <c r="I580" s="10"/>
@@ -25903,8 +26563,12 @@
       <c r="D590" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="E590" s="10"/>
-      <c r="F590" s="10"/>
+      <c r="E590" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F590" s="10" t="s">
+        <v>2632</v>
+      </c>
       <c r="G590" s="10"/>
       <c r="H590" s="10"/>
       <c r="I590" s="10"/>
@@ -26607,8 +27271,12 @@
       <c r="D620" s="47" t="s">
         <v>1523</v>
       </c>
-      <c r="E620" s="10"/>
-      <c r="F620" s="10"/>
+      <c r="E620" s="10" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F620" s="10" t="s">
+        <v>2904</v>
+      </c>
       <c r="G620" s="10"/>
       <c r="H620" s="10"/>
       <c r="I620" s="10"/>
@@ -27057,10 +27725,18 @@
       <c r="D639" s="47" t="s">
         <v>1545</v>
       </c>
-      <c r="E639" s="10"/>
-      <c r="F639" s="10"/>
-      <c r="G639" s="10"/>
-      <c r="H639" s="10"/>
+      <c r="E639" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F639" s="10" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G639" s="10" t="s">
+        <v>2878</v>
+      </c>
+      <c r="H639" s="10" t="s">
+        <v>2877</v>
+      </c>
       <c r="I639" s="10"/>
       <c r="J639" s="10"/>
       <c r="K639" s="10"/>
@@ -27177,10 +27853,18 @@
       <c r="D644" s="47" t="s">
         <v>1541</v>
       </c>
-      <c r="E644" s="10"/>
-      <c r="F644" s="10"/>
-      <c r="G644" s="10"/>
-      <c r="H644" s="10"/>
+      <c r="E644" s="10" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F644" s="10" t="s">
+        <v>2877</v>
+      </c>
+      <c r="G644" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="H644" s="10" t="s">
+        <v>2632</v>
+      </c>
       <c r="I644" s="10"/>
       <c r="J644" s="10"/>
       <c r="K644" s="10"/>
@@ -29174,7 +29858,7 @@
       <c r="H737" s="71"/>
       <c r="I737" s="71"/>
       <c r="J737" s="71"/>
-      <c r="K737" s="71"/>
+      <c r="K737" s="81"/>
       <c r="L737" s="83"/>
       <c r="M737" s="83"/>
       <c r="N737" s="83"/>
@@ -29198,7 +29882,7 @@
       <c r="H738" s="71"/>
       <c r="I738" s="71"/>
       <c r="J738" s="71"/>
-      <c r="K738" s="71"/>
+      <c r="K738" s="81"/>
       <c r="L738" s="83"/>
       <c r="M738" s="83"/>
       <c r="N738" s="83"/>
@@ -29222,7 +29906,7 @@
       <c r="H739" s="71"/>
       <c r="I739" s="71"/>
       <c r="J739" s="71"/>
-      <c r="K739" s="71"/>
+      <c r="K739" s="81"/>
       <c r="L739" s="83"/>
       <c r="M739" s="83"/>
       <c r="N739" s="83"/>
@@ -29246,7 +29930,7 @@
       <c r="H740" s="71"/>
       <c r="I740" s="71"/>
       <c r="J740" s="71"/>
-      <c r="K740" s="71"/>
+      <c r="K740" s="81"/>
       <c r="L740" s="83"/>
       <c r="M740" s="83"/>
       <c r="N740" s="83"/>
@@ -29270,7 +29954,7 @@
       <c r="H741" s="71"/>
       <c r="I741" s="71"/>
       <c r="J741" s="71"/>
-      <c r="K741" s="71"/>
+      <c r="K741" s="81"/>
       <c r="L741" s="83"/>
       <c r="M741" s="83"/>
       <c r="N741" s="83"/>
@@ -29294,7 +29978,7 @@
       <c r="H742" s="71"/>
       <c r="I742" s="71"/>
       <c r="J742" s="71"/>
-      <c r="K742" s="71"/>
+      <c r="K742" s="81"/>
       <c r="L742" s="83"/>
       <c r="M742" s="83"/>
       <c r="N742" s="83"/>
@@ -29318,7 +30002,7 @@
       <c r="H743" s="71"/>
       <c r="I743" s="71"/>
       <c r="J743" s="71"/>
-      <c r="K743" s="71"/>
+      <c r="K743" s="81"/>
       <c r="L743" s="83"/>
       <c r="M743" s="83"/>
       <c r="N743" s="83"/>
@@ -29342,7 +30026,7 @@
       <c r="H744" s="71"/>
       <c r="I744" s="71"/>
       <c r="J744" s="71"/>
-      <c r="K744" s="71"/>
+      <c r="K744" s="81"/>
       <c r="L744" s="83"/>
       <c r="M744" s="83"/>
       <c r="N744" s="83"/>
@@ -29366,7 +30050,7 @@
       <c r="H745" s="71"/>
       <c r="I745" s="71"/>
       <c r="J745" s="71"/>
-      <c r="K745" s="71"/>
+      <c r="K745" s="81"/>
       <c r="L745" s="83"/>
       <c r="M745" s="83"/>
       <c r="N745" s="83"/>
@@ -29390,7 +30074,7 @@
       <c r="H746" s="71"/>
       <c r="I746" s="71"/>
       <c r="J746" s="71"/>
-      <c r="K746" s="71"/>
+      <c r="K746" s="81"/>
       <c r="L746" s="83"/>
       <c r="M746" s="83"/>
       <c r="N746" s="83"/>
@@ -29414,7 +30098,7 @@
       <c r="H747" s="71"/>
       <c r="I747" s="71"/>
       <c r="J747" s="71"/>
-      <c r="K747" s="71"/>
+      <c r="K747" s="81"/>
       <c r="L747" s="83"/>
       <c r="M747" s="83"/>
       <c r="N747" s="83"/>
@@ -29438,7 +30122,7 @@
       <c r="H748" s="71"/>
       <c r="I748" s="71"/>
       <c r="J748" s="71"/>
-      <c r="K748" s="71"/>
+      <c r="K748" s="81"/>
       <c r="L748" s="83"/>
       <c r="M748" s="83"/>
       <c r="N748" s="83"/>
@@ -29462,7 +30146,7 @@
       <c r="H749" s="71"/>
       <c r="I749" s="71"/>
       <c r="J749" s="71"/>
-      <c r="K749" s="71"/>
+      <c r="K749" s="81"/>
       <c r="L749" s="83"/>
       <c r="M749" s="83"/>
       <c r="N749" s="83"/>
@@ -29486,7 +30170,7 @@
       <c r="H750" s="71"/>
       <c r="I750" s="71"/>
       <c r="J750" s="71"/>
-      <c r="K750" s="71"/>
+      <c r="K750" s="81"/>
       <c r="L750" s="83"/>
       <c r="M750" s="83"/>
       <c r="N750" s="83"/>
@@ -29510,7 +30194,7 @@
       <c r="H751" s="71"/>
       <c r="I751" s="71"/>
       <c r="J751" s="71"/>
-      <c r="K751" s="71"/>
+      <c r="K751" s="81"/>
       <c r="L751" s="83"/>
       <c r="M751" s="83"/>
       <c r="N751" s="83"/>
@@ -29534,7 +30218,7 @@
       <c r="H752" s="71"/>
       <c r="I752" s="71"/>
       <c r="J752" s="71"/>
-      <c r="K752" s="71"/>
+      <c r="K752" s="81"/>
       <c r="L752" s="83"/>
       <c r="M752" s="83"/>
       <c r="N752" s="83"/>
@@ -29558,7 +30242,7 @@
       <c r="H753" s="71"/>
       <c r="I753" s="71"/>
       <c r="J753" s="71"/>
-      <c r="K753" s="71"/>
+      <c r="K753" s="81"/>
       <c r="L753" s="83"/>
       <c r="M753" s="83"/>
       <c r="N753" s="83"/>
@@ -29582,7 +30266,7 @@
       <c r="H754" s="71"/>
       <c r="I754" s="71"/>
       <c r="J754" s="71"/>
-      <c r="K754" s="71"/>
+      <c r="K754" s="81"/>
       <c r="L754" s="83"/>
       <c r="M754" s="83"/>
       <c r="N754" s="83"/>
@@ -29606,7 +30290,7 @@
       <c r="H755" s="71"/>
       <c r="I755" s="71"/>
       <c r="J755" s="71"/>
-      <c r="K755" s="71"/>
+      <c r="K755" s="81"/>
       <c r="L755" s="83"/>
       <c r="M755" s="83"/>
       <c r="N755" s="83"/>
@@ -29630,7 +30314,7 @@
       <c r="H756" s="71"/>
       <c r="I756" s="71"/>
       <c r="J756" s="71"/>
-      <c r="K756" s="71"/>
+      <c r="K756" s="81"/>
       <c r="L756" s="83"/>
       <c r="M756" s="83"/>
       <c r="N756" s="83"/>
@@ -30199,8 +30883,12 @@
       </c>
       <c r="E780" s="10"/>
       <c r="F780" s="10"/>
-      <c r="G780" s="10"/>
-      <c r="H780" s="10"/>
+      <c r="G780" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="H780" s="10" t="s">
+        <v>2632</v>
+      </c>
       <c r="I780" s="10"/>
       <c r="J780" s="10"/>
       <c r="K780" s="10"/>
@@ -31793,8 +32481,12 @@
       <c r="D848" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="E848" s="10"/>
-      <c r="F848" s="10"/>
+      <c r="E848" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F848" s="10" t="s">
+        <v>2632</v>
+      </c>
       <c r="G848" s="10"/>
       <c r="H848" s="10"/>
       <c r="I848" s="10"/>
@@ -33873,8 +34565,12 @@
       </c>
       <c r="E937" s="10"/>
       <c r="F937" s="10"/>
-      <c r="G937" s="10"/>
-      <c r="H937" s="10"/>
+      <c r="G937" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="H937" s="10" t="s">
+        <v>2632</v>
+      </c>
       <c r="I937" s="10"/>
       <c r="J937" s="10"/>
       <c r="K937" s="10"/>
@@ -34195,7 +34891,7 @@
       <c r="H951" s="71"/>
       <c r="I951" s="71"/>
       <c r="J951" s="71"/>
-      <c r="K951" s="71"/>
+      <c r="K951" s="81"/>
       <c r="L951" s="83"/>
       <c r="M951" s="83"/>
       <c r="N951" s="83"/>
@@ -34219,7 +34915,7 @@
       <c r="H952" s="71"/>
       <c r="I952" s="71"/>
       <c r="J952" s="71"/>
-      <c r="K952" s="71"/>
+      <c r="K952" s="81"/>
       <c r="L952" s="83"/>
       <c r="M952" s="83"/>
       <c r="N952" s="83"/>
@@ -34243,7 +34939,7 @@
       <c r="H953" s="71"/>
       <c r="I953" s="71"/>
       <c r="J953" s="71"/>
-      <c r="K953" s="71"/>
+      <c r="K953" s="81"/>
       <c r="L953" s="83"/>
       <c r="M953" s="83"/>
       <c r="N953" s="83"/>
@@ -34267,7 +34963,7 @@
       <c r="H954" s="71"/>
       <c r="I954" s="71"/>
       <c r="J954" s="71"/>
-      <c r="K954" s="71"/>
+      <c r="K954" s="81"/>
       <c r="L954" s="83"/>
       <c r="M954" s="83"/>
       <c r="N954" s="83"/>
@@ -34291,7 +34987,7 @@
       <c r="H955" s="71"/>
       <c r="I955" s="71"/>
       <c r="J955" s="71"/>
-      <c r="K955" s="71"/>
+      <c r="K955" s="81"/>
       <c r="L955" s="83"/>
       <c r="M955" s="83"/>
       <c r="N955" s="83"/>
@@ -34315,7 +35011,7 @@
       <c r="H956" s="71"/>
       <c r="I956" s="71"/>
       <c r="J956" s="71"/>
-      <c r="K956" s="71"/>
+      <c r="K956" s="81"/>
       <c r="L956" s="83"/>
       <c r="M956" s="83"/>
       <c r="N956" s="83"/>
@@ -34339,7 +35035,7 @@
       <c r="H957" s="71"/>
       <c r="I957" s="71"/>
       <c r="J957" s="71"/>
-      <c r="K957" s="71"/>
+      <c r="K957" s="81"/>
       <c r="L957" s="83"/>
       <c r="M957" s="83"/>
       <c r="N957" s="83"/>
@@ -34363,7 +35059,7 @@
       <c r="H958" s="71"/>
       <c r="I958" s="71"/>
       <c r="J958" s="71"/>
-      <c r="K958" s="71"/>
+      <c r="K958" s="81"/>
       <c r="L958" s="83"/>
       <c r="M958" s="83"/>
       <c r="N958" s="83"/>
@@ -34387,7 +35083,7 @@
       <c r="H959" s="71"/>
       <c r="I959" s="71"/>
       <c r="J959" s="71"/>
-      <c r="K959" s="71"/>
+      <c r="K959" s="81"/>
       <c r="L959" s="83"/>
       <c r="M959" s="83"/>
       <c r="N959" s="83"/>
@@ -34411,7 +35107,7 @@
       <c r="H960" s="71"/>
       <c r="I960" s="71"/>
       <c r="J960" s="71"/>
-      <c r="K960" s="71"/>
+      <c r="K960" s="81"/>
       <c r="L960" s="83"/>
       <c r="M960" s="83"/>
       <c r="N960" s="83"/>
@@ -34435,7 +35131,7 @@
       <c r="H961" s="71"/>
       <c r="I961" s="71"/>
       <c r="J961" s="71"/>
-      <c r="K961" s="71"/>
+      <c r="K961" s="81"/>
       <c r="L961" s="83"/>
       <c r="M961" s="83"/>
       <c r="N961" s="83"/>
@@ -34459,7 +35155,7 @@
       <c r="H962" s="71"/>
       <c r="I962" s="71"/>
       <c r="J962" s="71"/>
-      <c r="K962" s="71"/>
+      <c r="K962" s="81"/>
       <c r="L962" s="83"/>
       <c r="M962" s="83"/>
       <c r="N962" s="83"/>
@@ -34483,7 +35179,7 @@
       <c r="H963" s="71"/>
       <c r="I963" s="71"/>
       <c r="J963" s="71"/>
-      <c r="K963" s="71"/>
+      <c r="K963" s="81"/>
       <c r="L963" s="83"/>
       <c r="M963" s="83"/>
       <c r="N963" s="83"/>
@@ -34507,7 +35203,7 @@
       <c r="H964" s="71"/>
       <c r="I964" s="71"/>
       <c r="J964" s="71"/>
-      <c r="K964" s="71"/>
+      <c r="K964" s="81"/>
       <c r="L964" s="83"/>
       <c r="M964" s="83"/>
       <c r="N964" s="83"/>
@@ -34531,7 +35227,7 @@
       <c r="H965" s="71"/>
       <c r="I965" s="71"/>
       <c r="J965" s="71"/>
-      <c r="K965" s="71"/>
+      <c r="K965" s="81"/>
       <c r="L965" s="83"/>
       <c r="M965" s="83"/>
       <c r="N965" s="83"/>
@@ -34555,7 +35251,7 @@
       <c r="H966" s="71"/>
       <c r="I966" s="71"/>
       <c r="J966" s="71"/>
-      <c r="K966" s="71"/>
+      <c r="K966" s="81"/>
       <c r="L966" s="83"/>
       <c r="M966" s="83"/>
       <c r="N966" s="83"/>
@@ -34579,7 +35275,7 @@
       <c r="H967" s="71"/>
       <c r="I967" s="71"/>
       <c r="J967" s="71"/>
-      <c r="K967" s="71"/>
+      <c r="K967" s="81"/>
       <c r="L967" s="83"/>
       <c r="M967" s="83"/>
       <c r="N967" s="83"/>
@@ -35062,8 +35758,12 @@
       <c r="D989" s="15" t="s">
         <v>1000</v>
       </c>
-      <c r="E989" s="10"/>
-      <c r="F989" s="10"/>
+      <c r="E989" s="10" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F989" s="10" t="s">
+        <v>2862</v>
+      </c>
       <c r="G989" s="10"/>
       <c r="H989" s="10"/>
       <c r="I989" s="10"/>
@@ -35377,7 +36077,7 @@
       <c r="H1003" s="71"/>
       <c r="I1003" s="71"/>
       <c r="J1003" s="71"/>
-      <c r="K1003" s="71"/>
+      <c r="K1003" s="81"/>
       <c r="L1003" s="83"/>
       <c r="M1003" s="83"/>
       <c r="N1003" s="83"/>
@@ -35401,7 +36101,7 @@
       <c r="H1004" s="71"/>
       <c r="I1004" s="71"/>
       <c r="J1004" s="71"/>
-      <c r="K1004" s="71"/>
+      <c r="K1004" s="81"/>
       <c r="L1004" s="83"/>
       <c r="M1004" s="83"/>
       <c r="N1004" s="83"/>
@@ -35425,7 +36125,7 @@
       <c r="H1005" s="71"/>
       <c r="I1005" s="71"/>
       <c r="J1005" s="71"/>
-      <c r="K1005" s="71"/>
+      <c r="K1005" s="81"/>
       <c r="L1005" s="83"/>
       <c r="M1005" s="83"/>
       <c r="N1005" s="83"/>
@@ -35449,7 +36149,7 @@
       <c r="H1006" s="71"/>
       <c r="I1006" s="71"/>
       <c r="J1006" s="71"/>
-      <c r="K1006" s="71"/>
+      <c r="K1006" s="81"/>
       <c r="L1006" s="83"/>
       <c r="M1006" s="83"/>
       <c r="N1006" s="83"/>
@@ -35473,7 +36173,7 @@
       <c r="H1007" s="71"/>
       <c r="I1007" s="71"/>
       <c r="J1007" s="71"/>
-      <c r="K1007" s="71"/>
+      <c r="K1007" s="81"/>
       <c r="L1007" s="83"/>
       <c r="M1007" s="83"/>
       <c r="N1007" s="83"/>
@@ -35497,7 +36197,7 @@
       <c r="H1008" s="71"/>
       <c r="I1008" s="71"/>
       <c r="J1008" s="71"/>
-      <c r="K1008" s="71"/>
+      <c r="K1008" s="81"/>
       <c r="L1008" s="83"/>
       <c r="M1008" s="83"/>
       <c r="N1008" s="83"/>
@@ -35521,7 +36221,7 @@
       <c r="H1009" s="71"/>
       <c r="I1009" s="71"/>
       <c r="J1009" s="71"/>
-      <c r="K1009" s="71"/>
+      <c r="K1009" s="81"/>
       <c r="L1009" s="83"/>
       <c r="M1009" s="83"/>
       <c r="N1009" s="83"/>
@@ -35545,7 +36245,7 @@
       <c r="H1010" s="71"/>
       <c r="I1010" s="71"/>
       <c r="J1010" s="71"/>
-      <c r="K1010" s="71"/>
+      <c r="K1010" s="81"/>
       <c r="L1010" s="83"/>
       <c r="M1010" s="83"/>
       <c r="N1010" s="83"/>
@@ -35569,7 +36269,7 @@
       <c r="H1011" s="71"/>
       <c r="I1011" s="71"/>
       <c r="J1011" s="71"/>
-      <c r="K1011" s="71"/>
+      <c r="K1011" s="81"/>
       <c r="L1011" s="83"/>
       <c r="M1011" s="83"/>
       <c r="N1011" s="83"/>
@@ -35593,7 +36293,7 @@
       <c r="H1012" s="71"/>
       <c r="I1012" s="71"/>
       <c r="J1012" s="71"/>
-      <c r="K1012" s="71"/>
+      <c r="K1012" s="81"/>
       <c r="L1012" s="83"/>
       <c r="M1012" s="83"/>
       <c r="N1012" s="83"/>
@@ -35617,7 +36317,7 @@
       <c r="H1013" s="71"/>
       <c r="I1013" s="71"/>
       <c r="J1013" s="71"/>
-      <c r="K1013" s="71"/>
+      <c r="K1013" s="81"/>
       <c r="L1013" s="83"/>
       <c r="M1013" s="83"/>
       <c r="N1013" s="83"/>
@@ -35641,7 +36341,7 @@
       <c r="H1014" s="71"/>
       <c r="I1014" s="71"/>
       <c r="J1014" s="71"/>
-      <c r="K1014" s="71"/>
+      <c r="K1014" s="81"/>
       <c r="L1014" s="83"/>
       <c r="M1014" s="83"/>
       <c r="N1014" s="83"/>
@@ -35665,7 +36365,7 @@
       <c r="H1015" s="71"/>
       <c r="I1015" s="71"/>
       <c r="J1015" s="71"/>
-      <c r="K1015" s="71"/>
+      <c r="K1015" s="81"/>
       <c r="L1015" s="83"/>
       <c r="M1015" s="83"/>
       <c r="N1015" s="83"/>
@@ -35689,7 +36389,7 @@
       <c r="H1016" s="71"/>
       <c r="I1016" s="71"/>
       <c r="J1016" s="71"/>
-      <c r="K1016" s="71"/>
+      <c r="K1016" s="81"/>
       <c r="L1016" s="83"/>
       <c r="M1016" s="83"/>
       <c r="N1016" s="83"/>
@@ -35713,7 +36413,7 @@
       <c r="H1017" s="71"/>
       <c r="I1017" s="71"/>
       <c r="J1017" s="71"/>
-      <c r="K1017" s="71"/>
+      <c r="K1017" s="81"/>
       <c r="L1017" s="83"/>
       <c r="M1017" s="83"/>
       <c r="N1017" s="83"/>
@@ -35737,7 +36437,7 @@
       <c r="H1018" s="71"/>
       <c r="I1018" s="71"/>
       <c r="J1018" s="71"/>
-      <c r="K1018" s="71"/>
+      <c r="K1018" s="81"/>
       <c r="L1018" s="83"/>
       <c r="M1018" s="83"/>
       <c r="N1018" s="83"/>
@@ -35761,7 +36461,7 @@
       <c r="H1019" s="71"/>
       <c r="I1019" s="71"/>
       <c r="J1019" s="71"/>
-      <c r="K1019" s="71"/>
+      <c r="K1019" s="81"/>
       <c r="L1019" s="83"/>
       <c r="M1019" s="83"/>
       <c r="N1019" s="83"/>
@@ -36113,8 +36813,12 @@
       </c>
       <c r="E1034" s="10"/>
       <c r="F1034" s="10"/>
-      <c r="G1034" s="10"/>
-      <c r="H1034" s="10"/>
+      <c r="G1034" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="H1034" s="10" t="s">
+        <v>2632</v>
+      </c>
       <c r="I1034" s="10"/>
       <c r="J1034" s="10"/>
       <c r="K1034" s="10"/>
@@ -38087,7 +38791,7 @@
       <c r="H1119" s="71"/>
       <c r="I1119" s="71"/>
       <c r="J1119" s="71"/>
-      <c r="K1119" s="71"/>
+      <c r="K1119" s="81"/>
       <c r="L1119" s="83"/>
       <c r="M1119" s="83"/>
       <c r="N1119" s="83"/>
@@ -38111,7 +38815,7 @@
       <c r="H1120" s="71"/>
       <c r="I1120" s="71"/>
       <c r="J1120" s="71"/>
-      <c r="K1120" s="71"/>
+      <c r="K1120" s="81"/>
       <c r="L1120" s="83"/>
       <c r="M1120" s="83"/>
       <c r="N1120" s="83"/>
@@ -38135,7 +38839,7 @@
       <c r="H1121" s="71"/>
       <c r="I1121" s="71"/>
       <c r="J1121" s="71"/>
-      <c r="K1121" s="71"/>
+      <c r="K1121" s="81"/>
       <c r="L1121" s="83"/>
       <c r="M1121" s="83"/>
       <c r="N1121" s="83"/>
@@ -38159,7 +38863,7 @@
       <c r="H1122" s="71"/>
       <c r="I1122" s="71"/>
       <c r="J1122" s="71"/>
-      <c r="K1122" s="71"/>
+      <c r="K1122" s="81"/>
       <c r="L1122" s="83"/>
       <c r="M1122" s="83"/>
       <c r="N1122" s="83"/>
@@ -38183,7 +38887,7 @@
       <c r="H1123" s="71"/>
       <c r="I1123" s="71"/>
       <c r="J1123" s="71"/>
-      <c r="K1123" s="71"/>
+      <c r="K1123" s="81"/>
       <c r="L1123" s="83"/>
       <c r="M1123" s="83"/>
       <c r="N1123" s="83"/>
@@ -38207,7 +38911,7 @@
       <c r="H1124" s="71"/>
       <c r="I1124" s="71"/>
       <c r="J1124" s="71"/>
-      <c r="K1124" s="71"/>
+      <c r="K1124" s="81"/>
       <c r="L1124" s="83"/>
       <c r="M1124" s="83"/>
       <c r="N1124" s="83"/>
@@ -38231,7 +38935,7 @@
       <c r="H1125" s="71"/>
       <c r="I1125" s="71"/>
       <c r="J1125" s="71"/>
-      <c r="K1125" s="71"/>
+      <c r="K1125" s="81"/>
       <c r="L1125" s="83"/>
       <c r="M1125" s="83"/>
       <c r="N1125" s="83"/>
@@ -38255,7 +38959,7 @@
       <c r="H1126" s="71"/>
       <c r="I1126" s="71"/>
       <c r="J1126" s="71"/>
-      <c r="K1126" s="71"/>
+      <c r="K1126" s="81"/>
       <c r="L1126" s="83"/>
       <c r="M1126" s="83"/>
       <c r="N1126" s="83"/>
@@ -38279,7 +38983,7 @@
       <c r="H1127" s="71"/>
       <c r="I1127" s="71"/>
       <c r="J1127" s="71"/>
-      <c r="K1127" s="71"/>
+      <c r="K1127" s="81"/>
       <c r="L1127" s="83"/>
       <c r="M1127" s="83"/>
       <c r="N1127" s="83"/>
@@ -38303,7 +39007,7 @@
       <c r="H1128" s="71"/>
       <c r="I1128" s="71"/>
       <c r="J1128" s="71"/>
-      <c r="K1128" s="71"/>
+      <c r="K1128" s="81"/>
       <c r="L1128" s="83"/>
       <c r="M1128" s="83"/>
       <c r="N1128" s="83"/>
@@ -38327,7 +39031,7 @@
       <c r="H1129" s="71"/>
       <c r="I1129" s="71"/>
       <c r="J1129" s="71"/>
-      <c r="K1129" s="71"/>
+      <c r="K1129" s="81"/>
       <c r="L1129" s="83"/>
       <c r="M1129" s="83"/>
       <c r="N1129" s="83"/>
@@ -38639,7 +39343,7 @@
       <c r="H1142" s="71"/>
       <c r="I1142" s="71"/>
       <c r="J1142" s="71"/>
-      <c r="K1142" s="71"/>
+      <c r="K1142" s="81"/>
       <c r="L1142" s="83"/>
       <c r="M1142" s="83"/>
       <c r="N1142" s="83"/>
@@ -38663,7 +39367,7 @@
       <c r="H1143" s="71"/>
       <c r="I1143" s="71"/>
       <c r="J1143" s="71"/>
-      <c r="K1143" s="71"/>
+      <c r="K1143" s="81"/>
       <c r="L1143" s="83"/>
       <c r="M1143" s="83"/>
       <c r="N1143" s="83"/>
@@ -38687,7 +39391,7 @@
       <c r="H1144" s="71"/>
       <c r="I1144" s="71"/>
       <c r="J1144" s="71"/>
-      <c r="K1144" s="71"/>
+      <c r="K1144" s="81"/>
       <c r="L1144" s="83"/>
       <c r="M1144" s="83"/>
       <c r="N1144" s="83"/>
@@ -38711,7 +39415,7 @@
       <c r="H1145" s="71"/>
       <c r="I1145" s="71"/>
       <c r="J1145" s="71"/>
-      <c r="K1145" s="71"/>
+      <c r="K1145" s="81"/>
       <c r="L1145" s="83"/>
       <c r="M1145" s="83"/>
       <c r="N1145" s="83"/>
@@ -38735,7 +39439,7 @@
       <c r="H1146" s="71"/>
       <c r="I1146" s="71"/>
       <c r="J1146" s="71"/>
-      <c r="K1146" s="71"/>
+      <c r="K1146" s="81"/>
       <c r="L1146" s="83"/>
       <c r="M1146" s="83"/>
       <c r="N1146" s="83"/>
@@ -38759,7 +39463,7 @@
       <c r="H1147" s="71"/>
       <c r="I1147" s="71"/>
       <c r="J1147" s="71"/>
-      <c r="K1147" s="71"/>
+      <c r="K1147" s="81"/>
       <c r="L1147" s="83"/>
       <c r="M1147" s="83"/>
       <c r="N1147" s="83"/>
@@ -38783,7 +39487,7 @@
       <c r="H1148" s="71"/>
       <c r="I1148" s="71"/>
       <c r="J1148" s="71"/>
-      <c r="K1148" s="71"/>
+      <c r="K1148" s="81"/>
       <c r="L1148" s="83"/>
       <c r="M1148" s="83"/>
       <c r="N1148" s="83"/>
@@ -38807,7 +39511,7 @@
       <c r="H1149" s="71"/>
       <c r="I1149" s="71"/>
       <c r="J1149" s="71"/>
-      <c r="K1149" s="71"/>
+      <c r="K1149" s="81"/>
       <c r="L1149" s="83"/>
       <c r="M1149" s="83"/>
       <c r="N1149" s="83"/>
@@ -38831,7 +39535,7 @@
       <c r="H1150" s="71"/>
       <c r="I1150" s="71"/>
       <c r="J1150" s="71"/>
-      <c r="K1150" s="71"/>
+      <c r="K1150" s="81"/>
       <c r="L1150" s="83"/>
       <c r="M1150" s="83"/>
       <c r="N1150" s="83"/>
@@ -38855,7 +39559,7 @@
       <c r="H1151" s="71"/>
       <c r="I1151" s="71"/>
       <c r="J1151" s="71"/>
-      <c r="K1151" s="71"/>
+      <c r="K1151" s="81"/>
       <c r="L1151" s="83"/>
       <c r="M1151" s="83"/>
       <c r="N1151" s="83"/>
@@ -38879,7 +39583,7 @@
       <c r="H1152" s="71"/>
       <c r="I1152" s="71"/>
       <c r="J1152" s="71"/>
-      <c r="K1152" s="71"/>
+      <c r="K1152" s="81"/>
       <c r="L1152" s="83"/>
       <c r="M1152" s="83"/>
       <c r="N1152" s="83"/>
@@ -38903,7 +39607,7 @@
       <c r="H1153" s="71"/>
       <c r="I1153" s="71"/>
       <c r="J1153" s="71"/>
-      <c r="K1153" s="71"/>
+      <c r="K1153" s="81"/>
       <c r="L1153" s="83"/>
       <c r="M1153" s="83"/>
       <c r="N1153" s="83"/>
@@ -38927,7 +39631,7 @@
       <c r="H1154" s="71"/>
       <c r="I1154" s="71"/>
       <c r="J1154" s="71"/>
-      <c r="K1154" s="71"/>
+      <c r="K1154" s="81"/>
       <c r="L1154" s="83"/>
       <c r="M1154" s="83"/>
       <c r="N1154" s="83"/>
@@ -38951,7 +39655,7 @@
       <c r="H1155" s="71"/>
       <c r="I1155" s="71"/>
       <c r="J1155" s="71"/>
-      <c r="K1155" s="71"/>
+      <c r="K1155" s="81"/>
       <c r="L1155" s="83"/>
       <c r="M1155" s="83"/>
       <c r="N1155" s="83"/>
@@ -42401,7 +43105,7 @@
       <c r="H1301" s="71"/>
       <c r="I1301" s="71"/>
       <c r="J1301" s="71"/>
-      <c r="K1301" s="71"/>
+      <c r="K1301" s="81"/>
       <c r="L1301" s="83"/>
       <c r="M1301" s="83"/>
       <c r="N1301" s="83"/>
@@ -42425,7 +43129,7 @@
       <c r="H1302" s="71"/>
       <c r="I1302" s="71"/>
       <c r="J1302" s="71"/>
-      <c r="K1302" s="71"/>
+      <c r="K1302" s="81"/>
       <c r="L1302" s="83"/>
       <c r="M1302" s="83"/>
       <c r="N1302" s="83"/>
@@ -42449,7 +43153,7 @@
       <c r="H1303" s="71"/>
       <c r="I1303" s="71"/>
       <c r="J1303" s="71"/>
-      <c r="K1303" s="71"/>
+      <c r="K1303" s="81"/>
       <c r="L1303" s="83"/>
       <c r="M1303" s="83"/>
       <c r="N1303" s="83"/>
@@ -42473,7 +43177,7 @@
       <c r="H1304" s="71"/>
       <c r="I1304" s="71"/>
       <c r="J1304" s="71"/>
-      <c r="K1304" s="71"/>
+      <c r="K1304" s="81"/>
       <c r="L1304" s="83"/>
       <c r="M1304" s="83"/>
       <c r="N1304" s="83"/>
@@ -42497,7 +43201,7 @@
       <c r="H1305" s="71"/>
       <c r="I1305" s="71"/>
       <c r="J1305" s="71"/>
-      <c r="K1305" s="71"/>
+      <c r="K1305" s="81"/>
       <c r="L1305" s="83"/>
       <c r="M1305" s="83"/>
       <c r="N1305" s="83"/>
@@ -42521,7 +43225,7 @@
       <c r="H1306" s="71"/>
       <c r="I1306" s="71"/>
       <c r="J1306" s="71"/>
-      <c r="K1306" s="71"/>
+      <c r="K1306" s="81"/>
       <c r="L1306" s="83"/>
       <c r="M1306" s="83"/>
       <c r="N1306" s="83"/>
@@ -42545,7 +43249,7 @@
       <c r="H1307" s="71"/>
       <c r="I1307" s="71"/>
       <c r="J1307" s="71"/>
-      <c r="K1307" s="71"/>
+      <c r="K1307" s="81"/>
       <c r="L1307" s="83"/>
       <c r="M1307" s="83"/>
       <c r="N1307" s="83"/>
@@ -42569,7 +43273,7 @@
       <c r="H1308" s="71"/>
       <c r="I1308" s="71"/>
       <c r="J1308" s="71"/>
-      <c r="K1308" s="71"/>
+      <c r="K1308" s="81"/>
       <c r="L1308" s="83"/>
       <c r="M1308" s="83"/>
       <c r="N1308" s="83"/>
@@ -42593,7 +43297,7 @@
       <c r="H1309" s="71"/>
       <c r="I1309" s="71"/>
       <c r="J1309" s="71"/>
-      <c r="K1309" s="71"/>
+      <c r="K1309" s="81"/>
       <c r="L1309" s="83"/>
       <c r="M1309" s="83"/>
       <c r="N1309" s="83"/>
@@ -42617,7 +43321,7 @@
       <c r="H1310" s="71"/>
       <c r="I1310" s="71"/>
       <c r="J1310" s="71"/>
-      <c r="K1310" s="71"/>
+      <c r="K1310" s="81"/>
       <c r="L1310" s="83"/>
       <c r="M1310" s="83"/>
       <c r="N1310" s="83"/>
@@ -42641,7 +43345,7 @@
       <c r="H1311" s="71"/>
       <c r="I1311" s="71"/>
       <c r="J1311" s="71"/>
-      <c r="K1311" s="71"/>
+      <c r="K1311" s="81"/>
       <c r="L1311" s="83"/>
       <c r="M1311" s="83"/>
       <c r="N1311" s="83"/>
@@ -42665,7 +43369,7 @@
       <c r="H1312" s="71"/>
       <c r="I1312" s="71"/>
       <c r="J1312" s="71"/>
-      <c r="K1312" s="71"/>
+      <c r="K1312" s="81"/>
       <c r="L1312" s="83"/>
       <c r="M1312" s="83"/>
       <c r="N1312" s="83"/>
@@ -42689,7 +43393,7 @@
       <c r="H1313" s="71"/>
       <c r="I1313" s="71"/>
       <c r="J1313" s="71"/>
-      <c r="K1313" s="71"/>
+      <c r="K1313" s="81"/>
       <c r="L1313" s="83"/>
       <c r="M1313" s="83"/>
       <c r="N1313" s="83"/>
@@ -42713,7 +43417,7 @@
       <c r="H1314" s="71"/>
       <c r="I1314" s="71"/>
       <c r="J1314" s="71"/>
-      <c r="K1314" s="71"/>
+      <c r="K1314" s="81"/>
       <c r="L1314" s="83"/>
       <c r="M1314" s="83"/>
       <c r="N1314" s="83"/>
@@ -42737,7 +43441,7 @@
       <c r="H1315" s="71"/>
       <c r="I1315" s="71"/>
       <c r="J1315" s="71"/>
-      <c r="K1315" s="71"/>
+      <c r="K1315" s="81"/>
       <c r="L1315" s="83"/>
       <c r="M1315" s="83"/>
       <c r="N1315" s="83"/>
@@ -42761,7 +43465,7 @@
       <c r="H1316" s="71"/>
       <c r="I1316" s="71"/>
       <c r="J1316" s="71"/>
-      <c r="K1316" s="71"/>
+      <c r="K1316" s="81"/>
       <c r="L1316" s="83"/>
       <c r="M1316" s="83"/>
       <c r="N1316" s="83"/>
@@ -42785,7 +43489,7 @@
       <c r="H1317" s="71"/>
       <c r="I1317" s="71"/>
       <c r="J1317" s="71"/>
-      <c r="K1317" s="71"/>
+      <c r="K1317" s="81"/>
       <c r="L1317" s="83"/>
       <c r="M1317" s="83"/>
       <c r="N1317" s="83"/>
@@ -42809,7 +43513,7 @@
       <c r="H1318" s="71"/>
       <c r="I1318" s="71"/>
       <c r="J1318" s="71"/>
-      <c r="K1318" s="71"/>
+      <c r="K1318" s="81"/>
       <c r="L1318" s="83"/>
       <c r="M1318" s="83"/>
       <c r="N1318" s="83"/>
@@ -42833,7 +43537,7 @@
       <c r="H1319" s="71"/>
       <c r="I1319" s="71"/>
       <c r="J1319" s="71"/>
-      <c r="K1319" s="71"/>
+      <c r="K1319" s="81"/>
       <c r="L1319" s="83"/>
       <c r="M1319" s="83"/>
       <c r="N1319" s="83"/>
